--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amehmandoostkotlar\OneDrive - ILVO\Anne-Marie\data\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB12797F-0A8F-4EDA-85A7-1961AE1105A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2C115-E1E0-4B3F-9512-AFE195DF11DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="44">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>17-10-2022	15:45</t>
+  </si>
+  <si>
+    <t>New e)</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,11 +243,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -273,9 +287,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -291,7 +314,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,22 +610,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -622,7 +645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -637,14 +660,14 @@
       </c>
       <c r="E2" s="10">
         <f>$D2-'well info'!$C$2</f>
-        <v>1.58</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="F2" s="10">
-        <f>$D2-'well info'!$F$2</f>
-        <v>-19.720000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E2</f>
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -659,14 +682,14 @@
       </c>
       <c r="E3" s="10">
         <f>$D3-'well info'!$C$2</f>
-        <v>1.5900000000000003</v>
+        <v>1.6</v>
       </c>
       <c r="F3" s="10">
-        <f>$D3-'well info'!$F$2</f>
-        <v>-19.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E3</f>
+        <v>20.259999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -681,14 +704,14 @@
       </c>
       <c r="E4" s="10">
         <f>$D4-'well info'!$C$2</f>
-        <v>1.6700000000000004</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="F4" s="10">
-        <f>$D4-'well info'!$F$2</f>
-        <v>-19.630000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E4</f>
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -703,14 +726,14 @@
       </c>
       <c r="E5" s="10">
         <f>$D5-'well info'!$C$2</f>
-        <v>1.6400000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="F5" s="10">
-        <f>$D5-'well info'!$F$2</f>
-        <v>-19.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E5</f>
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -725,14 +748,14 @@
       </c>
       <c r="E6" s="10">
         <f>$D6-'well info'!$C$2</f>
-        <v>1.58</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="F6" s="10">
-        <f>$D6-'well info'!$F$2</f>
-        <v>-19.720000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E6</f>
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -747,36 +770,36 @@
       </c>
       <c r="E7" s="10">
         <f>$D7-'well info'!$C$2</f>
-        <v>1.4500000000000002</v>
+        <v>1.46</v>
       </c>
       <c r="F7" s="10">
-        <f>$D7-'well info'!$F$2</f>
-        <v>-19.850000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E7</f>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C8" s="6">
-        <v>44775.743055555555</v>
+        <v>44886.625</v>
       </c>
       <c r="D8" s="10">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="E8" s="10">
-        <f>$D8-'well info'!$C$6</f>
-        <v>1.6500000000000001</v>
+        <f>$D8-'well info'!$C$2</f>
+        <v>1.2</v>
       </c>
       <c r="F8" s="10">
-        <f>$D8-'well info'!$F$6</f>
-        <v>-18.849999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E8</f>
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -784,21 +807,21 @@
         <v>9</v>
       </c>
       <c r="C9" s="6">
-        <v>44791.402777777781</v>
+        <v>44775.743055555555</v>
       </c>
       <c r="D9" s="10">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E9" s="10">
         <f>$D9-'well info'!$C$6</f>
-        <v>1.5999999999999999</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F9" s="10">
-        <f>$D9-'well info'!$F$6</f>
-        <v>-18.899999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E9</f>
+        <v>20.189999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -806,21 +829,21 @@
         <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>44813.4375</v>
+        <v>44791.402777777781</v>
       </c>
       <c r="D10" s="10">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E10" s="10">
         <f>$D10-'well info'!$C$6</f>
-        <v>1.6500000000000001</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="F10" s="10">
-        <f>$D10-'well info'!$F$6</f>
-        <v>-18.849999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E10</f>
+        <v>20.239999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -828,21 +851,21 @@
         <v>9</v>
       </c>
       <c r="C11" s="6">
-        <v>44818.625</v>
+        <v>44813.4375</v>
       </c>
       <c r="D11" s="10">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E11" s="10">
         <f>$D11-'well info'!$C$6</f>
-        <v>1.6300000000000001</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F11" s="10">
-        <f>$D11-'well info'!$F$6</f>
-        <v>-18.869999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E11</f>
+        <v>20.189999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -850,21 +873,21 @@
         <v>9</v>
       </c>
       <c r="C12" s="6">
-        <v>44824.427083333336</v>
+        <v>44818.625</v>
       </c>
       <c r="D12" s="10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E12" s="10">
         <f>$D12-'well info'!$C$6</f>
-        <v>1.55</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="F12" s="10">
-        <f>$D12-'well info'!$F$6</f>
-        <v>-18.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E12</f>
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -872,65 +895,65 @@
         <v>9</v>
       </c>
       <c r="C13" s="6">
-        <v>44851.65625</v>
+        <v>44824.427083333336</v>
       </c>
       <c r="D13" s="10">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="E13" s="10">
         <f>$D13-'well info'!$C$6</f>
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="F13" s="10">
-        <f>$D13-'well info'!$F$6</f>
-        <v>-19.059999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E13</f>
+        <v>20.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>44775.510416666664</v>
+        <v>44851.65625</v>
       </c>
       <c r="D14" s="10">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="E14" s="10">
-        <f>$D14-'well info'!$C$4</f>
-        <v>1.4699999999999998</v>
+        <f>$D14-'well info'!$C$6</f>
+        <v>1.46</v>
       </c>
       <c r="F14" s="10">
-        <f>$D14-'well info'!$F$4</f>
-        <v>-18.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E14</f>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="6">
-        <v>44791.404166666667</v>
+        <v>44886.625</v>
       </c>
       <c r="D15" s="10">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="E15" s="10">
-        <f>$D15-'well info'!$C$4</f>
-        <v>1.2599999999999998</v>
+        <f>$D15-'well info'!$C$6</f>
+        <v>1.25</v>
       </c>
       <c r="F15" s="10">
-        <f>$D15-'well info'!$F$4</f>
-        <v>-18.439999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E15</f>
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -938,21 +961,21 @@
         <v>7</v>
       </c>
       <c r="C16" s="6">
-        <v>44813.44027777778</v>
+        <v>44775.510416666664</v>
       </c>
       <c r="D16" s="10">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="E16" s="10">
-        <f>D16-'well info'!$C$4</f>
-        <v>1.2599999999999998</v>
+        <f>$D16-'well info'!$C$4</f>
+        <v>1.52</v>
       </c>
       <c r="F16" s="10">
-        <f>$D16-'well info'!$F$4</f>
-        <v>-18.439999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E16</f>
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -960,21 +983,21 @@
         <v>7</v>
       </c>
       <c r="C17" s="6">
-        <v>44818.607638888891</v>
+        <v>44791.404166666667</v>
       </c>
       <c r="D17" s="10">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="E17" s="10">
-        <f>D17-'well info'!$C$4</f>
-        <v>1.2399999999999998</v>
+        <f>$D17-'well info'!$C$4</f>
+        <v>1.31</v>
       </c>
       <c r="F17" s="10">
-        <f>$D17-'well info'!$F$4</f>
-        <v>-18.46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E17</f>
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -982,21 +1005,21 @@
         <v>7</v>
       </c>
       <c r="C18" s="6">
-        <v>44824.430555555555</v>
+        <v>44813.44027777778</v>
       </c>
       <c r="D18" s="10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="E18" s="10">
         <f>D18-'well info'!$C$4</f>
-        <v>1.1999999999999997</v>
+        <v>1.31</v>
       </c>
       <c r="F18" s="10">
-        <f>$D18-'well info'!$F$4</f>
-        <v>-18.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E18</f>
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1004,87 +1027,87 @@
         <v>7</v>
       </c>
       <c r="C19" s="6">
-        <v>44851.65625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D19" s="10">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="E19" s="10">
         <f>D19-'well info'!$C$4</f>
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="F19" s="10">
-        <f>$D19-'well info'!$F$4</f>
-        <v>-18.619999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E19</f>
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="6">
-        <v>44775.552083333336</v>
+        <v>44824.430555555555</v>
       </c>
       <c r="D20" s="10">
-        <v>2.83</v>
+        <v>1.88</v>
       </c>
       <c r="E20" s="10">
-        <f>$D20-'well info'!$C$3</f>
-        <v>2.15</v>
+        <f>D20-'well info'!$C$4</f>
+        <v>1.25</v>
       </c>
       <c r="F20" s="10">
-        <f>$D20-'well info'!$F$3</f>
-        <v>-18.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E20</f>
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="6">
-        <v>44791.406944444447</v>
+        <v>44851.65625</v>
       </c>
       <c r="D21" s="10">
-        <v>2.71</v>
+        <v>1.76</v>
       </c>
       <c r="E21" s="10">
-        <f>$D21-'well info'!$C$3</f>
-        <v>2.0299999999999998</v>
+        <f>D21-'well info'!$C$4</f>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F21" s="10">
-        <f>$D21-'well info'!$F$3</f>
-        <v>-18.869999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E21</f>
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="6">
-        <v>44813.447916666664</v>
+        <v>44886.625</v>
       </c>
       <c r="D22" s="10">
-        <v>2.89</v>
+        <v>1.43</v>
       </c>
       <c r="E22" s="10">
-        <f>$D22-'well info'!$C$3</f>
-        <v>2.21</v>
+        <f>D22-'well info'!$C$4</f>
+        <v>0.79999999999999993</v>
       </c>
       <c r="F22" s="10">
-        <f>$D22-'well info'!$F$3</f>
-        <v>-18.689999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E22</f>
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1092,21 +1115,21 @@
         <v>6</v>
       </c>
       <c r="C23" s="6">
-        <v>44818.607638888891</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D23" s="10">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="E23" s="10">
         <f>$D23-'well info'!$C$3</f>
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="F23" s="10">
-        <f>$D23-'well info'!$F$3</f>
-        <v>-18.809999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E23</f>
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1114,109 +1137,109 @@
         <v>6</v>
       </c>
       <c r="C24" s="6">
-        <v>44824.431944444441</v>
+        <v>44791.406944444447</v>
       </c>
       <c r="D24" s="10">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="E24" s="10">
         <f>$D24-'well info'!$C$3</f>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F24" s="10">
+        <f>'well info'!$F$2-$E24</f>
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <v>44813.447916666664</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2.89</v>
+      </c>
+      <c r="E25" s="10">
+        <f>$D25-'well info'!$C$3</f>
+        <v>2.21</v>
+      </c>
+      <c r="F25" s="10">
+        <f>'well info'!$F$2-$E25</f>
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6">
+        <v>44818.607638888891</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2.77</v>
+      </c>
+      <c r="E26" s="10">
+        <f>$D26-'well info'!$C$3</f>
+        <v>2.09</v>
+      </c>
+      <c r="F26" s="10">
+        <f>'well info'!$F$2-$E26</f>
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>44824.431944444441</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="E27" s="10">
+        <f>$D27-'well info'!$C$3</f>
         <v>2</v>
       </c>
-      <c r="F24" s="10">
-        <f>$D24-'well info'!$F$3</f>
-        <v>-18.899999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D25" s="10">
-        <v>99</v>
-      </c>
-      <c r="E25" s="10">
-        <f>$D25-'well info'!$C$5</f>
-        <v>98.3</v>
-      </c>
-      <c r="F25" s="10">
-        <f>$D25-'well info'!$F$5</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6">
-        <v>44791.408333333333</v>
-      </c>
-      <c r="D26" s="10">
-        <v>99</v>
-      </c>
-      <c r="E26" s="10">
-        <f>$D26-'well info'!$C$5</f>
-        <v>98.3</v>
-      </c>
-      <c r="F26" s="10">
-        <f>$D26-'well info'!$F$5</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6">
-        <v>44813.458333333336</v>
-      </c>
-      <c r="D27" s="10">
-        <v>99</v>
-      </c>
-      <c r="E27" s="10">
-        <f>$D27-'well info'!$C$5</f>
-        <v>98.3</v>
-      </c>
       <c r="F27" s="10">
-        <f>$D27-'well info'!$F$5</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E27</f>
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="6">
-        <v>44818.645833333336</v>
+        <v>44886.618055555555</v>
       </c>
       <c r="D28" s="10">
-        <v>99</v>
+        <v>2.23</v>
       </c>
       <c r="E28" s="10">
-        <f>$D28-'well info'!$C$5</f>
-        <v>98.3</v>
+        <f>$D28-'well info'!$C$3</f>
+        <v>1.5499999999999998</v>
       </c>
       <c r="F28" s="10">
-        <f>$D28-'well info'!$F$5</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'well info'!$F$2-$E28</f>
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="6">
-        <v>44824.434027777781</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D29" s="10">
         <v>99</v>
@@ -1234,8 +1257,118 @@
         <v>98.3</v>
       </c>
       <c r="F29" s="10">
-        <f>$D29-'well info'!$F$5</f>
-        <v>76</v>
+        <f>'well info'!$F$2-$E29</f>
+        <v>-76.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44791.408333333333</v>
+      </c>
+      <c r="D30" s="10">
+        <v>99</v>
+      </c>
+      <c r="E30" s="10">
+        <f>$D30-'well info'!$C$5</f>
+        <v>98.3</v>
+      </c>
+      <c r="F30" s="10">
+        <f>'well info'!$F$2-$E30</f>
+        <v>-76.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44813.458333333336</v>
+      </c>
+      <c r="D31" s="10">
+        <v>99</v>
+      </c>
+      <c r="E31" s="10">
+        <f>$D31-'well info'!$C$5</f>
+        <v>98.3</v>
+      </c>
+      <c r="F31" s="10">
+        <f>'well info'!$F$2-$E31</f>
+        <v>-76.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44818.645833333336</v>
+      </c>
+      <c r="D32" s="10">
+        <v>99</v>
+      </c>
+      <c r="E32" s="10">
+        <f>$D32-'well info'!$C$5</f>
+        <v>98.3</v>
+      </c>
+      <c r="F32" s="10">
+        <f>'well info'!$F$2-$E32</f>
+        <v>-76.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44824.434027777781</v>
+      </c>
+      <c r="D33" s="10">
+        <v>99</v>
+      </c>
+      <c r="E33" s="10">
+        <f>$D33-'well info'!$C$5</f>
+        <v>98.3</v>
+      </c>
+      <c r="F33" s="10">
+        <f>'well info'!$F$2-$E33</f>
+        <v>-76.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <v>44886.597222222219</v>
+      </c>
+      <c r="D34" s="13">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E34" s="10">
+        <f>$D34-'well info'!$C$8</f>
+        <v>4.2</v>
+      </c>
+      <c r="F34" s="10">
+        <f>'well info'!$F$2-$E34</f>
+        <v>17.66</v>
       </c>
     </row>
   </sheetData>
@@ -1245,18 +1378,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F185C5D2-7367-4A44-BAB5-F92E6E50077F}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +1403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1278,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1288,13 +1421,13 @@
       </c>
       <c r="F2">
         <f>E2+C2</f>
-        <v>21.87</v>
+        <v>21.86</v>
       </c>
       <c r="G2">
         <v>20.574000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1451,7 @@
         <v>20.338999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1326,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1336,13 +1469,13 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>20.38</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="G4">
         <v>19.902000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1366,7 +1499,7 @@
         <v>21.113</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1374,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1384,10 +1517,18 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>20.95</v>
+        <v>20.93</v>
       </c>
       <c r="G6">
         <v>20.741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1403,16 +1544,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1432,7 +1573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1442,15 +1583,15 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10">
         <f>$C2-'well info'!$C$2</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="E2" s="10">
         <f>$C2-'well info'!$F$2</f>
-        <v>-21.87</v>
+        <v>-21.86</v>
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1462,15 +1603,15 @@
       </c>
       <c r="D3" s="10">
         <f>$C3-'well info'!$C$2</f>
-        <v>-0.41999999999999993</v>
+        <v>-0.41000000000000003</v>
       </c>
       <c r="E3" s="10">
         <f>$C3-'well info'!$F$2</f>
-        <v>-21.720000000000002</v>
+        <v>-21.71</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1480,15 +1621,15 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10">
         <f>$C4-'well info'!$C$2</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="E4" s="10">
         <f>$C4-'well info'!$F$2</f>
-        <v>-21.87</v>
+        <v>-21.86</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1498,15 +1639,15 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10">
         <f>$C5-'well info'!$C$2</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="E5" s="10">
         <f>$C5-'well info'!$F$2</f>
-        <v>-21.87</v>
+        <v>-21.86</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1516,15 +1657,15 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10">
         <f>$C6-'well info'!$C$2</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="E6" s="10">
         <f>$C6-'well info'!$F$2</f>
-        <v>-21.87</v>
+        <v>-21.86</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1536,15 +1677,15 @@
       </c>
       <c r="D7" s="10">
         <f>$C7-'well info'!$C$2</f>
-        <v>0.13</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="E7" s="10">
         <f>$C7-'well info'!$F$2</f>
-        <v>-21.17</v>
+        <v>-21.16</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1552,15 +1693,15 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10">
         <f>$C8-'well info'!$C$2</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="E8" s="10">
         <f>$C8-'well info'!$F$2</f>
-        <v>-21.87</v>
+        <v>-21.86</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1568,17 +1709,17 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10">
         <f>$C9-'well info'!$C$2</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="E9" s="10">
         <f>$C9-'well info'!$F$2</f>
-        <v>-21.87</v>
+        <v>-21.86</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1586,17 +1727,17 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10">
         <f>$C10-'well info'!$C$2</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="E10" s="10">
         <f>$C10-'well info'!$F$2</f>
-        <v>-21.87</v>
+        <v>-21.86</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1604,17 +1745,17 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10">
         <f>$C11-'well info'!$C$2</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="E11" s="10">
         <f>$C11-'well info'!$F$2</f>
-        <v>-21.87</v>
+        <v>-21.86</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2</v>
       </c>
@@ -1624,14 +1765,14 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10">
         <f>$C12-'well info'!$C$6</f>
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="E12" s="10">
         <f>$C12-'well info'!$F$6</f>
-        <v>-20.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-20.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -1643,14 +1784,14 @@
       </c>
       <c r="D13" s="10">
         <f>$C13-'well info'!$C$6</f>
-        <v>-0.35</v>
+        <v>-0.32999999999999996</v>
       </c>
       <c r="E13" s="10">
         <f>$C13-'well info'!$F$6</f>
-        <v>-20.849999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-20.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2</v>
       </c>
@@ -1660,14 +1801,14 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10">
         <f>$C14-'well info'!$C$6</f>
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="E14" s="10">
         <f>$C14-'well info'!$F$6</f>
-        <v>-20.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-20.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -1677,14 +1818,14 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10">
         <f>$C15-'well info'!$C$6</f>
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="E15" s="10">
         <f>$C15-'well info'!$F$6</f>
-        <v>-20.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-20.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>2</v>
       </c>
@@ -1694,14 +1835,14 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10">
         <f>$C16-'well info'!$C$6</f>
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="E16" s="10">
         <f>$C16-'well info'!$F$6</f>
-        <v>-20.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>2</v>
       </c>
@@ -1713,14 +1854,14 @@
       </c>
       <c r="D17" s="10">
         <f>$C17-'well info'!$C$6</f>
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="E17" s="10">
         <f>$C17-'well info'!$F$6</f>
-        <v>-20.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2</v>
       </c>
@@ -1728,14 +1869,14 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10">
         <f>$C18-'well info'!$C$6</f>
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="E18" s="10">
         <f>$C18-'well info'!$F$6</f>
-        <v>-20.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -1743,14 +1884,14 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10">
         <f>$C19-'well info'!$C$6</f>
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="E19" s="10">
         <f>$C19-'well info'!$F$6</f>
-        <v>-20.95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -1758,14 +1899,14 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10">
         <f>$C20-'well info'!$C$6</f>
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="E20" s="10">
         <f>$C20-'well info'!$F$6</f>
-        <v>-20.95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>2</v>
       </c>
@@ -1773,14 +1914,14 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10">
         <f>$C21-'well info'!$C$6</f>
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="E21" s="10">
         <f>$C21-'well info'!$F$6</f>
-        <v>-20.95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3</v>
       </c>
@@ -1790,14 +1931,14 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10">
         <f>$C22-'well info'!$C$4</f>
-        <v>-0.68</v>
+        <v>-0.63</v>
       </c>
       <c r="E22" s="10">
         <f>$C22-'well info'!$F$4</f>
-        <v>-20.38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -1807,14 +1948,14 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10">
         <f>$C23-'well info'!$C$4</f>
-        <v>-0.68</v>
+        <v>-0.63</v>
       </c>
       <c r="E23" s="10">
         <f>$C23-'well info'!$F$4</f>
-        <v>-20.38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>3</v>
       </c>
@@ -1824,14 +1965,14 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10">
         <f>C24-'well info'!$C$4</f>
-        <v>-0.68</v>
+        <v>-0.63</v>
       </c>
       <c r="E24" s="10">
         <f>$C24-'well info'!$F$4</f>
-        <v>-20.38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>3</v>
       </c>
@@ -1841,14 +1982,14 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10">
         <f>C25-'well info'!$C$4</f>
-        <v>-0.68</v>
+        <v>-0.63</v>
       </c>
       <c r="E25" s="10">
         <f>$C25-'well info'!$F$4</f>
-        <v>-20.38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>3</v>
       </c>
@@ -1858,14 +1999,14 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10">
         <f>C26-'well info'!$C$4</f>
-        <v>-0.68</v>
+        <v>-0.63</v>
       </c>
       <c r="E26" s="10">
         <f>$C26-'well info'!$F$4</f>
-        <v>-20.38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>3</v>
       </c>
@@ -1877,14 +2018,14 @@
       </c>
       <c r="D27" s="10">
         <f>C27-'well info'!$C$4</f>
-        <v>0.16999999999999993</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="E27" s="10">
         <f>$C27-'well info'!$F$4</f>
-        <v>-19.529999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-19.479999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>3</v>
       </c>
@@ -1892,14 +2033,14 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10">
         <f>C28-'well info'!$C$4</f>
-        <v>-0.68</v>
+        <v>-0.63</v>
       </c>
       <c r="E28" s="10">
         <f>$C28-'well info'!$F$4</f>
-        <v>-20.38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>3</v>
       </c>
@@ -1907,14 +2048,14 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10">
         <f>C29-'well info'!$C$4</f>
-        <v>-0.68</v>
+        <v>-0.63</v>
       </c>
       <c r="E29" s="10">
         <f>$C29-'well info'!$F$4</f>
-        <v>-20.38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>3</v>
       </c>
@@ -1922,14 +2063,14 @@
       <c r="C30" s="10"/>
       <c r="D30" s="10">
         <f>C30-'well info'!$C$4</f>
-        <v>-0.68</v>
+        <v>-0.63</v>
       </c>
       <c r="E30" s="10">
         <f>$C30-'well info'!$F$4</f>
-        <v>-20.38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>3</v>
       </c>
@@ -1937,14 +2078,14 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10">
         <f>C31-'well info'!$C$4</f>
-        <v>-0.68</v>
+        <v>-0.63</v>
       </c>
       <c r="E31" s="10">
         <f>$C31-'well info'!$F$4</f>
-        <v>-20.38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -1961,7 +2102,7 @@
         <v>-21.58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -1978,7 +2119,7 @@
         <v>-21.58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -1995,7 +2136,7 @@
         <v>-21.58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -2012,7 +2153,7 @@
         <v>-21.58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -2029,7 +2170,7 @@
         <v>-21.58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -2048,7 +2189,7 @@
         <v>-21.38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -2063,7 +2204,7 @@
         <v>-21.58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -2078,7 +2219,7 @@
         <v>-21.58</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>4</v>
       </c>
@@ -2093,7 +2234,7 @@
         <v>-21.58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>4</v>
       </c>
@@ -2108,77 +2249,77 @@
         <v>-21.58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="4"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="4"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="4"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="4"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="4"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="7"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="6"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="6"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="11"/>
@@ -2196,7 +2337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2C115-E1E0-4B3F-9512-AFE195DF11DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE700498-8EA0-438F-9B2D-142AC30B0A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,8 +663,8 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="F2" s="10">
-        <f>'well info'!$F$2-$E2</f>
-        <v>20.27</v>
+        <f>'well info'!$E$2-$E2</f>
+        <v>19.71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -685,8 +685,8 @@
         <v>1.6</v>
       </c>
       <c r="F3" s="10">
-        <f>'well info'!$F$2-$E3</f>
-        <v>20.259999999999998</v>
+        <f>'well info'!$E$2-$E3</f>
+        <v>19.7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -707,8 +707,8 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="F4" s="10">
-        <f>'well info'!$F$2-$E4</f>
-        <v>20.18</v>
+        <f>'well info'!$E$2-$E4</f>
+        <v>19.62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -729,8 +729,8 @@
         <v>1.65</v>
       </c>
       <c r="F5" s="10">
-        <f>'well info'!$F$2-$E5</f>
-        <v>20.21</v>
+        <f>'well info'!$E$2-$E5</f>
+        <v>19.650000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -751,8 +751,8 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="F6" s="10">
-        <f>'well info'!$F$2-$E6</f>
-        <v>20.27</v>
+        <f>'well info'!$E$2-$E6</f>
+        <v>19.71</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -773,8 +773,8 @@
         <v>1.46</v>
       </c>
       <c r="F7" s="10">
-        <f>'well info'!$F$2-$E7</f>
-        <v>20.399999999999999</v>
+        <f>'well info'!$E$2-$E7</f>
+        <v>19.84</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -795,8 +795,8 @@
         <v>1.2</v>
       </c>
       <c r="F8" s="10">
-        <f>'well info'!$F$2-$E8</f>
-        <v>20.66</v>
+        <f>'well info'!$E$2-$E8</f>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -813,12 +813,12 @@
         <v>2.1</v>
       </c>
       <c r="E9" s="10">
-        <f>$D9-'well info'!$C$6</f>
+        <f>$D9-'well info'!$C$3</f>
         <v>1.6700000000000002</v>
       </c>
       <c r="F9" s="10">
-        <f>'well info'!$F$2-$E9</f>
-        <v>20.189999999999998</v>
+        <f>'well info'!$E$3-$E9</f>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -835,12 +835,12 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="E10" s="10">
-        <f>$D10-'well info'!$C$6</f>
+        <f>$D10-'well info'!$C$3</f>
         <v>1.6199999999999999</v>
       </c>
       <c r="F10" s="10">
-        <f>'well info'!$F$2-$E10</f>
-        <v>20.239999999999998</v>
+        <f>'well info'!$E$3-$E10</f>
+        <v>18.88</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -857,12 +857,12 @@
         <v>2.1</v>
       </c>
       <c r="E11" s="10">
-        <f>$D11-'well info'!$C$6</f>
+        <f>$D11-'well info'!$C$3</f>
         <v>1.6700000000000002</v>
       </c>
       <c r="F11" s="10">
-        <f>'well info'!$F$2-$E11</f>
-        <v>20.189999999999998</v>
+        <f>'well info'!$E$3-$E11</f>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -879,12 +879,12 @@
         <v>2.08</v>
       </c>
       <c r="E12" s="10">
-        <f>$D12-'well info'!$C$6</f>
+        <f>$D12-'well info'!$C$3</f>
         <v>1.6500000000000001</v>
       </c>
       <c r="F12" s="10">
-        <f>'well info'!$F$2-$E12</f>
-        <v>20.21</v>
+        <f>'well info'!$E$3-$E12</f>
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -901,12 +901,12 @@
         <v>2</v>
       </c>
       <c r="E13" s="10">
-        <f>$D13-'well info'!$C$6</f>
+        <f>$D13-'well info'!$C$3</f>
         <v>1.57</v>
       </c>
       <c r="F13" s="10">
-        <f>'well info'!$F$2-$E13</f>
-        <v>20.29</v>
+        <f>'well info'!$E$3-$E13</f>
+        <v>18.93</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -923,12 +923,12 @@
         <v>1.89</v>
       </c>
       <c r="E14" s="10">
-        <f>$D14-'well info'!$C$6</f>
+        <f>$D14-'well info'!$C$3</f>
         <v>1.46</v>
       </c>
       <c r="F14" s="10">
-        <f>'well info'!$F$2-$E14</f>
-        <v>20.399999999999999</v>
+        <f>'well info'!$E$3-$E14</f>
+        <v>19.04</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -945,12 +945,12 @@
         <v>1.68</v>
       </c>
       <c r="E15" s="10">
-        <f>$D15-'well info'!$C$6</f>
+        <f>$D15-'well info'!$C$3</f>
         <v>1.25</v>
       </c>
       <c r="F15" s="10">
-        <f>'well info'!$F$2-$E15</f>
-        <v>20.61</v>
+        <f>'well info'!$E$3-$E15</f>
+        <v>19.25</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -971,8 +971,8 @@
         <v>1.52</v>
       </c>
       <c r="F16" s="10">
-        <f>'well info'!$F$2-$E16</f>
-        <v>20.34</v>
+        <f>'well info'!$E$4-$E16</f>
+        <v>18.18</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -993,8 +993,8 @@
         <v>1.31</v>
       </c>
       <c r="F17" s="10">
-        <f>'well info'!$F$2-$E17</f>
-        <v>20.55</v>
+        <f>'well info'!$E$4-$E17</f>
+        <v>18.39</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1015,8 +1015,8 @@
         <v>1.31</v>
       </c>
       <c r="F18" s="10">
-        <f>'well info'!$F$2-$E18</f>
-        <v>20.55</v>
+        <f>'well info'!$E$4-$E18</f>
+        <v>18.39</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1037,8 +1037,8 @@
         <v>1.29</v>
       </c>
       <c r="F19" s="10">
-        <f>'well info'!$F$2-$E19</f>
-        <v>20.57</v>
+        <f>'well info'!$E$4-$E19</f>
+        <v>18.41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1059,8 +1059,8 @@
         <v>1.25</v>
       </c>
       <c r="F20" s="10">
-        <f>'well info'!$F$2-$E20</f>
-        <v>20.61</v>
+        <f>'well info'!$E$4-$E20</f>
+        <v>18.45</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1081,8 +1081,8 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F21" s="10">
-        <f>'well info'!$F$2-$E21</f>
-        <v>20.73</v>
+        <f>'well info'!$E$4-$E21</f>
+        <v>18.57</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1103,8 +1103,8 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="F22" s="10">
-        <f>'well info'!$F$2-$E22</f>
-        <v>21.06</v>
+        <f>'well info'!$E$4-$E22</f>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1121,12 +1121,12 @@
         <v>2.83</v>
       </c>
       <c r="E23" s="10">
-        <f>$D23-'well info'!$C$3</f>
+        <f>$D23-'well info'!$C$5</f>
         <v>2.15</v>
       </c>
       <c r="F23" s="10">
-        <f>'well info'!$F$2-$E23</f>
-        <v>19.71</v>
+        <f>'well info'!$E$5-$E23</f>
+        <v>18.75</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1143,12 +1143,12 @@
         <v>2.71</v>
       </c>
       <c r="E24" s="10">
-        <f>$D24-'well info'!$C$3</f>
+        <f>$D24-'well info'!$C$5</f>
         <v>2.0299999999999998</v>
       </c>
       <c r="F24" s="10">
-        <f>'well info'!$F$2-$E24</f>
-        <v>19.829999999999998</v>
+        <f>'well info'!$E$5-$E24</f>
+        <v>18.869999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1165,12 +1165,12 @@
         <v>2.89</v>
       </c>
       <c r="E25" s="10">
-        <f>$D25-'well info'!$C$3</f>
+        <f>$D25-'well info'!$C$5</f>
         <v>2.21</v>
       </c>
       <c r="F25" s="10">
-        <f>'well info'!$F$2-$E25</f>
-        <v>19.649999999999999</v>
+        <f>'well info'!$E$5-$E25</f>
+        <v>18.689999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1187,12 +1187,12 @@
         <v>2.77</v>
       </c>
       <c r="E26" s="10">
-        <f>$D26-'well info'!$C$3</f>
+        <f>$D26-'well info'!$C$5</f>
         <v>2.09</v>
       </c>
       <c r="F26" s="10">
-        <f>'well info'!$F$2-$E26</f>
-        <v>19.77</v>
+        <f>'well info'!$E$5-$E26</f>
+        <v>18.809999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1209,12 +1209,12 @@
         <v>2.68</v>
       </c>
       <c r="E27" s="10">
-        <f>$D27-'well info'!$C$3</f>
+        <f>$D27-'well info'!$C$5</f>
         <v>2</v>
       </c>
       <c r="F27" s="10">
-        <f>'well info'!$F$2-$E27</f>
-        <v>19.86</v>
+        <f>'well info'!$E$5-$E27</f>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1231,12 +1231,12 @@
         <v>2.23</v>
       </c>
       <c r="E28" s="10">
-        <f>$D28-'well info'!$C$3</f>
+        <f>$D28-'well info'!$C$5</f>
         <v>1.5499999999999998</v>
       </c>
       <c r="F28" s="10">
-        <f>'well info'!$F$2-$E28</f>
-        <v>20.309999999999999</v>
+        <f>'well info'!$E$5-$E28</f>
+        <v>19.349999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1253,12 +1253,12 @@
         <v>99</v>
       </c>
       <c r="E29" s="10">
-        <f>$D29-'well info'!$C$5</f>
+        <f>$D29-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
       <c r="F29" s="10">
-        <f>'well info'!$F$2-$E29</f>
-        <v>-76.44</v>
+        <f>'well info'!$E$6-$E29</f>
+        <v>-76</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1275,12 +1275,12 @@
         <v>99</v>
       </c>
       <c r="E30" s="10">
-        <f>$D30-'well info'!$C$5</f>
+        <f>$D30-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
       <c r="F30" s="10">
-        <f>'well info'!$F$2-$E30</f>
-        <v>-76.44</v>
+        <f>'well info'!$E$6-$E30</f>
+        <v>-76</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1297,12 +1297,12 @@
         <v>99</v>
       </c>
       <c r="E31" s="10">
-        <f>$D31-'well info'!$C$5</f>
+        <f>$D31-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
       <c r="F31" s="10">
-        <f>'well info'!$F$2-$E31</f>
-        <v>-76.44</v>
+        <f>'well info'!$E$6-$E31</f>
+        <v>-76</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1319,12 +1319,12 @@
         <v>99</v>
       </c>
       <c r="E32" s="10">
-        <f>$D32-'well info'!$C$5</f>
+        <f>$D32-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
       <c r="F32" s="10">
-        <f>'well info'!$F$2-$E32</f>
-        <v>-76.44</v>
+        <f>'well info'!$E$6-$E32</f>
+        <v>-76</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1341,12 +1341,12 @@
         <v>99</v>
       </c>
       <c r="E33" s="10">
-        <f>$D33-'well info'!$C$5</f>
+        <f>$D33-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
       <c r="F33" s="10">
-        <f>'well info'!$F$2-$E33</f>
-        <v>-76.44</v>
+        <f>'well info'!$E$6-$E33</f>
+        <v>-76</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1367,8 +1367,8 @@
         <v>4.2</v>
       </c>
       <c r="F34" s="10">
-        <f>'well info'!$F$2-$E34</f>
-        <v>17.66</v>
+        <f>'well info'!$E$6-$E34</f>
+        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,28 +1427,28 @@
         <v>20.574000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">E3+C3</f>
-        <v>21.58</v>
+        <f>E3+C3</f>
+        <v>20.93</v>
       </c>
       <c r="G3">
-        <v>20.338999999999999</v>
+        <v>20.741</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1468,59 +1468,59 @@
         <v>19.7</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4" si="0">E4+C4</f>
         <v>20.329999999999998</v>
       </c>
       <c r="G4">
         <v>19.902000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>22.3</v>
+        <v>20.9</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>E5+C5</f>
+        <v>21.58</v>
       </c>
       <c r="G5">
-        <v>21.113</v>
+        <v>20.338999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0.43</v>
+        <v>0.7</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>20.5</v>
+        <v>22.3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>20.93</v>
+        <f>E6+C6</f>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>20.741</v>
+        <v>21.113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
-        <f>$C12-'well info'!$C$6</f>
+        <f>$C12-'well info'!$C$3</f>
         <v>-0.43</v>
       </c>
       <c r="E12" s="10">
-        <f>$C12-'well info'!$F$6</f>
+        <f>$C12-'well info'!$F$3</f>
         <v>-20.93</v>
       </c>
     </row>
@@ -1783,11 +1783,11 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="10">
-        <f>$C13-'well info'!$C$6</f>
+        <f>$C13-'well info'!$C$3</f>
         <v>-0.32999999999999996</v>
       </c>
       <c r="E13" s="10">
-        <f>$C13-'well info'!$F$6</f>
+        <f>$C13-'well info'!$F$3</f>
         <v>-20.83</v>
       </c>
     </row>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10">
-        <f>$C14-'well info'!$C$6</f>
+        <f>$C14-'well info'!$C$3</f>
         <v>-0.43</v>
       </c>
       <c r="E14" s="10">
-        <f>$C14-'well info'!$F$6</f>
+        <f>$C14-'well info'!$F$3</f>
         <v>-20.93</v>
       </c>
     </row>
@@ -1817,11 +1817,11 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10">
-        <f>$C15-'well info'!$C$6</f>
+        <f>$C15-'well info'!$C$3</f>
         <v>-0.43</v>
       </c>
       <c r="E15" s="10">
-        <f>$C15-'well info'!$F$6</f>
+        <f>$C15-'well info'!$F$3</f>
         <v>-20.93</v>
       </c>
     </row>
@@ -1834,11 +1834,11 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10">
-        <f>$C16-'well info'!$C$6</f>
+        <f>$C16-'well info'!$C$3</f>
         <v>-0.43</v>
       </c>
       <c r="E16" s="10">
-        <f>$C16-'well info'!$F$6</f>
+        <f>$C16-'well info'!$F$3</f>
         <v>-20.93</v>
       </c>
     </row>
@@ -1853,11 +1853,11 @@
         <v>0.25</v>
       </c>
       <c r="D17" s="10">
-        <f>$C17-'well info'!$C$6</f>
+        <f>$C17-'well info'!$C$3</f>
         <v>-0.18</v>
       </c>
       <c r="E17" s="10">
-        <f>$C17-'well info'!$F$6</f>
+        <f>$C17-'well info'!$F$3</f>
         <v>-20.68</v>
       </c>
     </row>
@@ -1868,11 +1868,11 @@
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
-        <f>$C18-'well info'!$C$6</f>
+        <f>$C18-'well info'!$C$3</f>
         <v>-0.43</v>
       </c>
       <c r="E18" s="10">
-        <f>$C18-'well info'!$F$6</f>
+        <f>$C18-'well info'!$F$3</f>
         <v>-20.93</v>
       </c>
     </row>
@@ -1883,11 +1883,11 @@
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
-        <f>$C19-'well info'!$C$6</f>
+        <f>$C19-'well info'!$C$3</f>
         <v>-0.43</v>
       </c>
       <c r="E19" s="10">
-        <f>$C19-'well info'!$F$6</f>
+        <f>$C19-'well info'!$F$3</f>
         <v>-20.93</v>
       </c>
     </row>
@@ -1898,11 +1898,11 @@
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10">
-        <f>$C20-'well info'!$C$6</f>
+        <f>$C20-'well info'!$C$3</f>
         <v>-0.43</v>
       </c>
       <c r="E20" s="10">
-        <f>$C20-'well info'!$F$6</f>
+        <f>$C20-'well info'!$F$3</f>
         <v>-20.93</v>
       </c>
     </row>
@@ -1913,11 +1913,11 @@
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10">
-        <f>$C21-'well info'!$C$6</f>
+        <f>$C21-'well info'!$C$3</f>
         <v>-0.43</v>
       </c>
       <c r="E21" s="10">
-        <f>$C21-'well info'!$F$6</f>
+        <f>$C21-'well info'!$F$3</f>
         <v>-20.93</v>
       </c>
     </row>
@@ -2094,11 +2094,11 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
-        <f>$C32-'well info'!$C$3</f>
+        <f>$C32-'well info'!$C$5</f>
         <v>-0.68</v>
       </c>
       <c r="E32" s="10">
-        <f>$C32-'well info'!$F$3</f>
+        <f>$C32-'well info'!$F$5</f>
         <v>-21.58</v>
       </c>
     </row>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10">
-        <f>$C33-'well info'!$C$3</f>
+        <f>$C33-'well info'!$C$5</f>
         <v>-0.68</v>
       </c>
       <c r="E33" s="10">
-        <f>$C33-'well info'!$F$3</f>
+        <f>$C33-'well info'!$F$5</f>
         <v>-21.58</v>
       </c>
     </row>
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
-        <f>$C34-'well info'!$C$3</f>
+        <f>$C34-'well info'!$C$5</f>
         <v>-0.68</v>
       </c>
       <c r="E34" s="10">
-        <f>$C34-'well info'!$F$3</f>
+        <f>$C34-'well info'!$F$5</f>
         <v>-21.58</v>
       </c>
     </row>
@@ -2145,11 +2145,11 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
-        <f>$C35-'well info'!$C$3</f>
+        <f>$C35-'well info'!$C$5</f>
         <v>-0.68</v>
       </c>
       <c r="E35" s="10">
-        <f>$C35-'well info'!$F$3</f>
+        <f>$C35-'well info'!$F$5</f>
         <v>-21.58</v>
       </c>
     </row>
@@ -2162,11 +2162,11 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
-        <f>$C36-'well info'!$C$3</f>
+        <f>$C36-'well info'!$C$5</f>
         <v>-0.68</v>
       </c>
       <c r="E36" s="10">
-        <f>$C36-'well info'!$F$3</f>
+        <f>$C36-'well info'!$F$5</f>
         <v>-21.58</v>
       </c>
     </row>
@@ -2181,11 +2181,11 @@
         <v>0.2</v>
       </c>
       <c r="D37" s="10">
-        <f>$C37-'well info'!$C$3</f>
+        <f>$C37-'well info'!$C$5</f>
         <v>-0.48000000000000004</v>
       </c>
       <c r="E37" s="10">
-        <f>$C37-'well info'!$F$3</f>
+        <f>$C37-'well info'!$F$5</f>
         <v>-21.38</v>
       </c>
     </row>
@@ -2196,11 +2196,11 @@
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
-        <f>$C38-'well info'!$C$3</f>
+        <f>$C38-'well info'!$C$5</f>
         <v>-0.68</v>
       </c>
       <c r="E38" s="10">
-        <f>$C38-'well info'!$F$3</f>
+        <f>$C38-'well info'!$F$5</f>
         <v>-21.58</v>
       </c>
     </row>
@@ -2211,11 +2211,11 @@
       <c r="B39" s="6"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
-        <f>$C39-'well info'!$C$3</f>
+        <f>$C39-'well info'!$C$5</f>
         <v>-0.68</v>
       </c>
       <c r="E39" s="10">
-        <f>$C39-'well info'!$F$3</f>
+        <f>$C39-'well info'!$F$5</f>
         <v>-21.58</v>
       </c>
     </row>
@@ -2226,11 +2226,11 @@
       <c r="B40" s="6"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
-        <f>$C40-'well info'!$C$3</f>
+        <f>$C40-'well info'!$C$5</f>
         <v>-0.68</v>
       </c>
       <c r="E40" s="10">
-        <f>$C40-'well info'!$F$3</f>
+        <f>$C40-'well info'!$F$5</f>
         <v>-21.58</v>
       </c>
     </row>
@@ -2241,11 +2241,11 @@
       <c r="B41" s="6"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
-        <f>$C41-'well info'!$C$3</f>
+        <f>$C41-'well info'!$C$5</f>
         <v>-0.68</v>
       </c>
       <c r="E41" s="10">
-        <f>$C41-'well info'!$F$3</f>
+        <f>$C41-'well info'!$F$5</f>
         <v>-21.58</v>
       </c>
     </row>

--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE700498-8EA0-438F-9B2D-142AC30B0A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFC2D40-6232-4FB6-B5E2-5DAF7BDBA63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -176,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -287,13 +293,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,48 +805,48 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C9" s="6">
-        <v>44775.743055555555</v>
+        <v>44894.625</v>
       </c>
       <c r="D9" s="10">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="10">
-        <f>$D9-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <f>$D9-'well info'!$C$2</f>
+        <v>0.94</v>
       </c>
       <c r="F9" s="10">
-        <f>'well info'!$E$3-$E9</f>
-        <v>18.829999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+        <f>'well info'!$E$2-$E9</f>
+        <v>20.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C10" s="6">
-        <v>44791.402777777781</v>
+        <v>44904.625</v>
       </c>
       <c r="D10" s="10">
-        <v>2.0499999999999998</v>
+        <v>1.36</v>
       </c>
       <c r="E10" s="10">
-        <f>$D10-'well info'!$C$3</f>
-        <v>1.6199999999999999</v>
+        <f>$D10-'well info'!$C$2</f>
+        <v>0.8</v>
       </c>
       <c r="F10" s="10">
-        <f>'well info'!$E$3-$E10</f>
-        <v>18.88</v>
+        <f>'well info'!$E$2-$E10</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -851,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6">
-        <v>44813.4375</v>
+        <v>44775.743055555555</v>
       </c>
       <c r="D11" s="10">
         <v>2.1</v>
@@ -873,18 +879,18 @@
         <v>9</v>
       </c>
       <c r="C12" s="6">
-        <v>44818.625</v>
+        <v>44791.402777777781</v>
       </c>
       <c r="D12" s="10">
-        <v>2.08</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E12" s="10">
         <f>$D12-'well info'!$C$3</f>
-        <v>1.6500000000000001</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="F12" s="10">
         <f>'well info'!$E$3-$E12</f>
-        <v>18.850000000000001</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -895,18 +901,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="6">
-        <v>44824.427083333336</v>
+        <v>44813.4375</v>
       </c>
       <c r="D13" s="10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E13" s="10">
         <f>$D13-'well info'!$C$3</f>
-        <v>1.57</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F13" s="10">
         <f>'well info'!$E$3-$E13</f>
-        <v>18.93</v>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -917,18 +923,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>44851.65625</v>
+        <v>44818.625</v>
       </c>
       <c r="D14" s="10">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="E14" s="10">
         <f>$D14-'well info'!$C$3</f>
-        <v>1.46</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="F14" s="10">
         <f>'well info'!$E$3-$E14</f>
-        <v>19.04</v>
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -939,106 +945,106 @@
         <v>9</v>
       </c>
       <c r="C15" s="6">
-        <v>44886.625</v>
+        <v>44824.427083333336</v>
       </c>
       <c r="D15" s="10">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="E15" s="10">
         <f>$D15-'well info'!$C$3</f>
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="F15" s="10">
         <f>'well info'!$E$3-$E15</f>
-        <v>19.25</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6">
-        <v>44775.510416666664</v>
+        <v>44851.65625</v>
       </c>
       <c r="D16" s="10">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="E16" s="10">
-        <f>$D16-'well info'!$C$4</f>
-        <v>1.52</v>
+        <f>$D16-'well info'!$C$3</f>
+        <v>1.46</v>
       </c>
       <c r="F16" s="10">
-        <f>'well info'!$E$4-$E16</f>
-        <v>18.18</v>
+        <f>'well info'!$E$3-$E16</f>
+        <v>19.04</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>44791.404166666667</v>
+        <v>44886.625</v>
       </c>
       <c r="D17" s="10">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="E17" s="10">
-        <f>$D17-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D17-'well info'!$C$3</f>
+        <v>1.25</v>
       </c>
       <c r="F17" s="10">
-        <f>'well info'!$E$4-$E17</f>
-        <v>18.39</v>
+        <f>'well info'!$E$3-$E17</f>
+        <v>19.25</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6">
-        <v>44813.44027777778</v>
+        <v>44894.625</v>
       </c>
       <c r="D18" s="10">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="E18" s="10">
-        <f>D18-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D18-'well info'!$C$3</f>
+        <v>0.97</v>
       </c>
       <c r="F18" s="10">
-        <f>'well info'!$E$4-$E18</f>
-        <v>18.39</v>
+        <f>'well info'!$E$3-$E18</f>
+        <v>19.53</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6">
-        <v>44818.607638888891</v>
+        <v>44904.625</v>
       </c>
       <c r="D19" s="10">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="E19" s="10">
-        <f>D19-'well info'!$C$4</f>
-        <v>1.29</v>
+        <f>$D19-'well info'!$C$3</f>
+        <v>1.22</v>
       </c>
       <c r="F19" s="10">
-        <f>'well info'!$E$4-$E19</f>
-        <v>18.41</v>
+        <f>'well info'!$E$3-$E19</f>
+        <v>19.28</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1049,18 +1055,18 @@
         <v>7</v>
       </c>
       <c r="C20" s="6">
-        <v>44824.430555555555</v>
+        <v>44775.510416666664</v>
       </c>
       <c r="D20" s="10">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="E20" s="10">
-        <f>D20-'well info'!$C$4</f>
-        <v>1.25</v>
+        <f>$D20-'well info'!$C$4</f>
+        <v>1.52</v>
       </c>
       <c r="F20" s="10">
         <f>'well info'!$E$4-$E20</f>
-        <v>18.45</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1071,18 +1077,18 @@
         <v>7</v>
       </c>
       <c r="C21" s="6">
-        <v>44851.65625</v>
+        <v>44791.404166666667</v>
       </c>
       <c r="D21" s="10">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="E21" s="10">
-        <f>D21-'well info'!$C$4</f>
-        <v>1.1299999999999999</v>
+        <f>$D21-'well info'!$C$4</f>
+        <v>1.31</v>
       </c>
       <c r="F21" s="10">
         <f>'well info'!$E$4-$E21</f>
-        <v>18.57</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1093,285 +1099,506 @@
         <v>7</v>
       </c>
       <c r="C22" s="6">
-        <v>44886.625</v>
+        <v>44813.44027777778</v>
       </c>
       <c r="D22" s="10">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="E22" s="10">
         <f>D22-'well info'!$C$4</f>
-        <v>0.79999999999999993</v>
+        <v>1.31</v>
       </c>
       <c r="F22" s="10">
         <f>'well info'!$E$4-$E22</f>
+        <v>18.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6">
+        <v>44818.607638888891</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.92</v>
+      </c>
+      <c r="E23" s="10">
+        <f>D23-'well info'!$C$4</f>
+        <v>1.29</v>
+      </c>
+      <c r="F23" s="10">
+        <f>'well info'!$E$4-$E23</f>
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
+        <v>44824.430555555555</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1.88</v>
+      </c>
+      <c r="E24" s="10">
+        <f>D24-'well info'!$C$4</f>
+        <v>1.25</v>
+      </c>
+      <c r="F24" s="10">
+        <f>'well info'!$E$4-$E24</f>
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6">
+        <v>44851.65625</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1.76</v>
+      </c>
+      <c r="E25" s="10">
+        <f>D25-'well info'!$C$4</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F25" s="10">
+        <f>'well info'!$E$4-$E25</f>
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6">
+        <v>44886.625</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1.43</v>
+      </c>
+      <c r="E26" s="10">
+        <f>D26-'well info'!$C$4</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F26" s="10">
+        <f>'well info'!$E$4-$E26</f>
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="6">
+        <v>44894.625</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="E27" s="10">
+        <f>D27-'well info'!$C$4</f>
+        <v>0.62</v>
+      </c>
+      <c r="F27" s="10">
+        <f>'well info'!$E$4-$E27</f>
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6">
+        <v>44904.625</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1.55</v>
+      </c>
+      <c r="E28" s="10">
+        <f>D28-'well info'!$C$4</f>
+        <v>0.92</v>
+      </c>
+      <c r="F28" s="10">
+        <f>'well info'!$E$4-$E28</f>
+        <v>18.779999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C23" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D23" s="10">
-        <v>2.83</v>
-      </c>
-      <c r="E23" s="10">
-        <f>$D23-'well info'!$C$5</f>
-        <v>2.15</v>
-      </c>
-      <c r="F23" s="10">
-        <f>'well info'!$E$5-$E23</f>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="6">
-        <v>44791.406944444447</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2.71</v>
-      </c>
-      <c r="E24" s="10">
-        <f>$D24-'well info'!$C$5</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F24" s="10">
-        <f>'well info'!$E$5-$E24</f>
-        <v>18.869999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="6">
-        <v>44813.447916666664</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2.89</v>
-      </c>
-      <c r="E25" s="10">
-        <f>$D25-'well info'!$C$5</f>
-        <v>2.21</v>
-      </c>
-      <c r="F25" s="10">
-        <f>'well info'!$E$5-$E25</f>
-        <v>18.689999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="6">
-        <v>44818.607638888891</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2.77</v>
-      </c>
-      <c r="E26" s="10">
-        <f>$D26-'well info'!$C$5</f>
-        <v>2.09</v>
-      </c>
-      <c r="F26" s="10">
-        <f>'well info'!$E$5-$E26</f>
-        <v>18.809999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6">
-        <v>44824.431944444441</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2.68</v>
-      </c>
-      <c r="E27" s="10">
-        <f>$D27-'well info'!$C$5</f>
-        <v>2</v>
-      </c>
-      <c r="F27" s="10">
-        <f>'well info'!$E$5-$E27</f>
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6">
-        <v>44886.618055555555</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2.23</v>
-      </c>
-      <c r="E28" s="10">
-        <f>$D28-'well info'!$C$5</f>
-        <v>1.5499999999999998</v>
-      </c>
-      <c r="F28" s="10">
-        <f>'well info'!$E$5-$E28</f>
-        <v>19.349999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="C29" s="6">
         <v>44775.552083333336</v>
       </c>
       <c r="D29" s="10">
+        <v>2.83</v>
+      </c>
+      <c r="E29" s="10">
+        <f>$D29-'well info'!$C$5</f>
+        <v>2.15</v>
+      </c>
+      <c r="F29" s="10">
+        <f>'well info'!$E$5-$E29</f>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44791.406944444447</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2.71</v>
+      </c>
+      <c r="E30" s="10">
+        <f>$D30-'well info'!$C$5</f>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F30" s="10">
+        <f>'well info'!$E$5-$E30</f>
+        <v>18.869999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44813.447916666664</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2.89</v>
+      </c>
+      <c r="E31" s="10">
+        <f>$D31-'well info'!$C$5</f>
+        <v>2.21</v>
+      </c>
+      <c r="F31" s="10">
+        <f>'well info'!$E$5-$E31</f>
+        <v>18.689999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44818.607638888891</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2.77</v>
+      </c>
+      <c r="E32" s="10">
+        <f>$D32-'well info'!$C$5</f>
+        <v>2.09</v>
+      </c>
+      <c r="F32" s="10">
+        <f>'well info'!$E$5-$E32</f>
+        <v>18.809999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44824.431944444441</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="E33" s="10">
+        <f>$D33-'well info'!$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="F33" s="10">
+        <f>'well info'!$E$5-$E33</f>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6">
+        <v>44886.618055555555</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2.23</v>
+      </c>
+      <c r="E34" s="10">
+        <f>$D34-'well info'!$C$5</f>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="F34" s="10">
+        <f>'well info'!$E$5-$E34</f>
+        <v>19.349999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="6">
+        <v>44894.625</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1.81</v>
+      </c>
+      <c r="E35" s="10">
+        <f>$D35-'well info'!$C$5</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F35" s="10">
+        <f>'well info'!$E$5-$E35</f>
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44904.625</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="E36" s="10">
+        <f>$D36-'well info'!$C$5</f>
+        <v>1.31</v>
+      </c>
+      <c r="F36" s="10">
+        <f>'well info'!$E$5-$E36</f>
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6">
+        <v>44775.552083333336</v>
+      </c>
+      <c r="D37" s="10">
         <v>99</v>
       </c>
-      <c r="E29" s="10">
-        <f>$D29-'well info'!$C$6</f>
+      <c r="E37" s="10">
+        <f>$D37-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
-      <c r="F29" s="10">
-        <f>'well info'!$E$6-$E29</f>
-        <v>-76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="F37" s="10">
+        <f>'well info'!$E$2-$E37</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C38" s="6">
         <v>44791.408333333333</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D38" s="10">
         <v>99</v>
       </c>
-      <c r="E30" s="10">
-        <f>$D30-'well info'!$C$6</f>
+      <c r="E38" s="10">
+        <f>$D38-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
-      <c r="F30" s="10">
-        <f>'well info'!$E$6-$E30</f>
-        <v>-76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="F38" s="10">
+        <f>'well info'!$E$2-$E38</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C39" s="6">
         <v>44813.458333333336</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D39" s="10">
         <v>99</v>
       </c>
-      <c r="E31" s="10">
-        <f>$D31-'well info'!$C$6</f>
+      <c r="E39" s="10">
+        <f>$D39-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
-      <c r="F31" s="10">
-        <f>'well info'!$E$6-$E31</f>
-        <v>-76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="F39" s="10">
+        <f>'well info'!$E$2-$E39</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C40" s="6">
         <v>44818.645833333336</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D40" s="10">
         <v>99</v>
       </c>
-      <c r="E32" s="10">
-        <f>$D32-'well info'!$C$6</f>
+      <c r="E40" s="10">
+        <f>$D40-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
-      <c r="F32" s="10">
-        <f>'well info'!$E$6-$E32</f>
-        <v>-76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="F40" s="10">
+        <f>'well info'!$E$2-$E40</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C41" s="6">
         <v>44824.434027777781</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D41" s="10">
         <v>99</v>
       </c>
-      <c r="E33" s="10">
-        <f>$D33-'well info'!$C$6</f>
+      <c r="E41" s="10">
+        <f>$D41-'well info'!$C$6</f>
         <v>98.3</v>
       </c>
-      <c r="F33" s="10">
-        <f>'well info'!$E$6-$E33</f>
-        <v>-76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="F41" s="10">
+        <f>'well info'!$E$2-$E41</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C42" s="6">
         <v>44886.597222222219</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D42" s="13">
         <v>4.4800000000000004</v>
       </c>
-      <c r="E34" s="10">
-        <f>$D34-'well info'!$C$8</f>
+      <c r="E42" s="10">
+        <f>$D42-'well info'!$C$8</f>
         <v>4.2</v>
       </c>
-      <c r="F34" s="10">
-        <f>'well info'!$E$6-$E34</f>
+      <c r="F42" s="10">
+        <f>'well info'!$E$6-$E42</f>
         <v>18.100000000000001</v>
       </c>
     </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6">
+        <v>44894.625</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2.65</v>
+      </c>
+      <c r="E43" s="10">
+        <f>$D43-'well info'!$C$8</f>
+        <v>2.37</v>
+      </c>
+      <c r="F43" s="10">
+        <f>'well info'!$E$6-$E43</f>
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6">
+        <v>44904.625</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="E44" s="10">
+        <f>$D44-'well info'!$C$8</f>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="F44" s="10">
+        <f>'well info'!$E$6-$E44</f>
+        <v>19.98</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1381,7 +1608,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,7 +1768,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,12 +1991,12 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
-        <f>$C12-'well info'!$C$3</f>
-        <v>-0.43</v>
+        <f>$C12-'well info'!$C$6</f>
+        <v>-0.7</v>
       </c>
       <c r="E12" s="10">
-        <f>$C12-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <f>$C12-'well info'!$F$6</f>
+        <v>-23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1783,12 +2010,12 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="10">
-        <f>$C13-'well info'!$C$3</f>
-        <v>-0.32999999999999996</v>
+        <f>$C13-'well info'!$C$6</f>
+        <v>-0.6</v>
       </c>
       <c r="E13" s="10">
-        <f>$C13-'well info'!$F$3</f>
-        <v>-20.83</v>
+        <f>$C13-'well info'!$F$6</f>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1800,12 +2027,12 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10">
-        <f>$C14-'well info'!$C$3</f>
-        <v>-0.43</v>
+        <f>$C14-'well info'!$C$6</f>
+        <v>-0.7</v>
       </c>
       <c r="E14" s="10">
-        <f>$C14-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <f>$C14-'well info'!$F$6</f>
+        <v>-23</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1817,12 +2044,12 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10">
-        <f>$C15-'well info'!$C$3</f>
-        <v>-0.43</v>
+        <f>$C15-'well info'!$C$6</f>
+        <v>-0.7</v>
       </c>
       <c r="E15" s="10">
-        <f>$C15-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <f>$C15-'well info'!$F$6</f>
+        <v>-23</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1834,12 +2061,12 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10">
-        <f>$C16-'well info'!$C$3</f>
-        <v>-0.43</v>
+        <f>$C16-'well info'!$C$6</f>
+        <v>-0.7</v>
       </c>
       <c r="E16" s="10">
-        <f>$C16-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <f>$C16-'well info'!$F$6</f>
+        <v>-23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1853,12 +2080,12 @@
         <v>0.25</v>
       </c>
       <c r="D17" s="10">
-        <f>$C17-'well info'!$C$3</f>
-        <v>-0.18</v>
+        <f>$C17-'well info'!$C$6</f>
+        <v>-0.44999999999999996</v>
       </c>
       <c r="E17" s="10">
-        <f>$C17-'well info'!$F$3</f>
-        <v>-20.68</v>
+        <f>$C17-'well info'!$F$6</f>
+        <v>-22.75</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1868,12 +2095,12 @@
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
-        <f>$C18-'well info'!$C$3</f>
-        <v>-0.43</v>
+        <f>$C18-'well info'!$C$6</f>
+        <v>-0.7</v>
       </c>
       <c r="E18" s="10">
-        <f>$C18-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <f>$C18-'well info'!$F$6</f>
+        <v>-23</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1883,12 +2110,12 @@
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
-        <f>$C19-'well info'!$C$3</f>
-        <v>-0.43</v>
+        <f>$C19-'well info'!$C$6</f>
+        <v>-0.7</v>
       </c>
       <c r="E19" s="10">
-        <f>$C19-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <f>$C19-'well info'!$F$6</f>
+        <v>-23</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1898,12 +2125,12 @@
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10">
-        <f>$C20-'well info'!$C$3</f>
-        <v>-0.43</v>
+        <f>$C20-'well info'!$C$6</f>
+        <v>-0.7</v>
       </c>
       <c r="E20" s="10">
-        <f>$C20-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <f>$C20-'well info'!$F$6</f>
+        <v>-23</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1913,12 +2140,12 @@
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10">
-        <f>$C21-'well info'!$C$3</f>
-        <v>-0.43</v>
+        <f>$C21-'well info'!$C$6</f>
+        <v>-0.7</v>
       </c>
       <c r="E21" s="10">
-        <f>$C21-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <f>$C21-'well info'!$F$6</f>
+        <v>-23</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2094,12 +2321,12 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
-        <f>$C32-'well info'!$C$5</f>
-        <v>-0.68</v>
+        <f>$C32-'well info'!$C$3</f>
+        <v>-0.43</v>
       </c>
       <c r="E32" s="10">
-        <f>$C32-'well info'!$F$5</f>
-        <v>-21.58</v>
+        <f>$C32-'well info'!$F$3</f>
+        <v>-20.93</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2111,12 +2338,12 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10">
-        <f>$C33-'well info'!$C$5</f>
-        <v>-0.68</v>
+        <f>$C33-'well info'!$C$3</f>
+        <v>-0.43</v>
       </c>
       <c r="E33" s="10">
-        <f>$C33-'well info'!$F$5</f>
-        <v>-21.58</v>
+        <f>$C33-'well info'!$F$3</f>
+        <v>-20.93</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2128,12 +2355,12 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
-        <f>$C34-'well info'!$C$5</f>
-        <v>-0.68</v>
+        <f>$C34-'well info'!$C$3</f>
+        <v>-0.43</v>
       </c>
       <c r="E34" s="10">
-        <f>$C34-'well info'!$F$5</f>
-        <v>-21.58</v>
+        <f>$C34-'well info'!$F$3</f>
+        <v>-20.93</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2145,12 +2372,12 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
-        <f>$C35-'well info'!$C$5</f>
-        <v>-0.68</v>
+        <f>$C35-'well info'!$C$3</f>
+        <v>-0.43</v>
       </c>
       <c r="E35" s="10">
-        <f>$C35-'well info'!$F$5</f>
-        <v>-21.58</v>
+        <f>$C35-'well info'!$F$3</f>
+        <v>-20.93</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2162,12 +2389,12 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
-        <f>$C36-'well info'!$C$5</f>
-        <v>-0.68</v>
+        <f>$C36-'well info'!$C$3</f>
+        <v>-0.43</v>
       </c>
       <c r="E36" s="10">
-        <f>$C36-'well info'!$F$5</f>
-        <v>-21.58</v>
+        <f>$C36-'well info'!$F$3</f>
+        <v>-20.93</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2181,12 +2408,12 @@
         <v>0.2</v>
       </c>
       <c r="D37" s="10">
-        <f>$C37-'well info'!$C$5</f>
-        <v>-0.48000000000000004</v>
+        <f>$C37-'well info'!$C$3</f>
+        <v>-0.22999999999999998</v>
       </c>
       <c r="E37" s="10">
-        <f>$C37-'well info'!$F$5</f>
-        <v>-21.38</v>
+        <f>$C37-'well info'!$F$3</f>
+        <v>-20.73</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2196,12 +2423,12 @@
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
-        <f>$C38-'well info'!$C$5</f>
-        <v>-0.68</v>
+        <f>$C38-'well info'!$C$3</f>
+        <v>-0.43</v>
       </c>
       <c r="E38" s="10">
-        <f>$C38-'well info'!$F$5</f>
-        <v>-21.58</v>
+        <f>$C38-'well info'!$F$3</f>
+        <v>-20.93</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2211,12 +2438,12 @@
       <c r="B39" s="6"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
-        <f>$C39-'well info'!$C$5</f>
-        <v>-0.68</v>
+        <f>$C39-'well info'!$C$3</f>
+        <v>-0.43</v>
       </c>
       <c r="E39" s="10">
-        <f>$C39-'well info'!$F$5</f>
-        <v>-21.58</v>
+        <f>$C39-'well info'!$F$3</f>
+        <v>-20.93</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2226,12 +2453,12 @@
       <c r="B40" s="6"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
-        <f>$C40-'well info'!$C$5</f>
-        <v>-0.68</v>
+        <f>$C40-'well info'!$C$3</f>
+        <v>-0.43</v>
       </c>
       <c r="E40" s="10">
-        <f>$C40-'well info'!$F$5</f>
-        <v>-21.58</v>
+        <f>$C40-'well info'!$F$3</f>
+        <v>-20.93</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2241,12 +2468,12 @@
       <c r="B41" s="6"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
-        <f>$C41-'well info'!$C$5</f>
-        <v>-0.68</v>
+        <f>$C41-'well info'!$C$3</f>
+        <v>-0.43</v>
       </c>
       <c r="E41" s="10">
-        <f>$C41-'well info'!$F$5</f>
-        <v>-21.58</v>
+        <f>$C41-'well info'!$F$3</f>
+        <v>-20.93</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.3">

--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFC2D40-6232-4FB6-B5E2-5DAF7BDBA63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660451B0-87C8-4665-BA0B-88635ED161F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,18 +835,18 @@
         <v>3</v>
       </c>
       <c r="C10" s="6">
-        <v>44904.625</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D10" s="10">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="E10" s="10">
         <f>$D10-'well info'!$C$2</f>
-        <v>0.8</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F10" s="10">
         <f>'well info'!$E$2-$E10</f>
-        <v>20.5</v>
+        <v>20.170000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1033,18 +1033,18 @@
         <v>9</v>
       </c>
       <c r="C19" s="6">
-        <v>44904.625</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D19" s="10">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="E19" s="10">
         <f>$D19-'well info'!$C$3</f>
-        <v>1.22</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="F19" s="10">
         <f>'well info'!$E$3-$E19</f>
-        <v>19.28</v>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1231,18 +1231,18 @@
         <v>7</v>
       </c>
       <c r="C28" s="6">
-        <v>44904.625</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D28" s="10">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="E28" s="10">
         <f>D28-'well info'!$C$4</f>
-        <v>0.92</v>
+        <v>0.7400000000000001</v>
       </c>
       <c r="F28" s="10">
         <f>'well info'!$E$4-$E28</f>
-        <v>18.779999999999998</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1407,18 +1407,18 @@
         <v>6</v>
       </c>
       <c r="C36" s="6">
-        <v>44904.625</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D36" s="10">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="E36" s="10">
         <f>$D36-'well info'!$C$5</f>
-        <v>1.31</v>
+        <v>1.4299999999999997</v>
       </c>
       <c r="F36" s="10">
         <f>'well info'!$E$5-$E36</f>
-        <v>19.59</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1583,18 +1583,18 @@
         <v>8</v>
       </c>
       <c r="C44" s="6">
-        <v>44904.625</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D44" s="13">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="E44" s="10">
         <f>$D44-'well info'!$C$8</f>
-        <v>2.3200000000000003</v>
+        <v>2.42</v>
       </c>
       <c r="F44" s="10">
         <f>'well info'!$E$6-$E44</f>
-        <v>19.98</v>
+        <v>19.880000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660451B0-87C8-4665-BA0B-88635ED161F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C13A5-D984-452C-9630-3D79184E7510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,6 +301,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,26 +852,26 @@
         <v>20.170000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C11" s="6">
-        <v>44775.743055555555</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D11" s="10">
-        <v>2.1</v>
+        <v>1.17</v>
       </c>
       <c r="E11" s="10">
-        <f>$D11-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <f>$D11-'well info'!$C$2</f>
+        <v>0.60999999999999988</v>
       </c>
       <c r="F11" s="10">
-        <f>'well info'!$E$3-$E11</f>
-        <v>18.829999999999998</v>
+        <f>'well info'!$E$2-$E11</f>
+        <v>20.69</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -879,18 +882,18 @@
         <v>9</v>
       </c>
       <c r="C12" s="6">
-        <v>44791.402777777781</v>
+        <v>44775.743055555555</v>
       </c>
       <c r="D12" s="10">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E12" s="10">
         <f>$D12-'well info'!$C$3</f>
-        <v>1.6199999999999999</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F12" s="10">
         <f>'well info'!$E$3-$E12</f>
-        <v>18.88</v>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -901,18 +904,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="6">
-        <v>44813.4375</v>
+        <v>44791.402777777781</v>
       </c>
       <c r="D13" s="10">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E13" s="10">
         <f>$D13-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="F13" s="10">
         <f>'well info'!$E$3-$E13</f>
-        <v>18.829999999999998</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -923,18 +926,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>44818.625</v>
+        <v>44813.4375</v>
       </c>
       <c r="D14" s="10">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E14" s="10">
         <f>$D14-'well info'!$C$3</f>
-        <v>1.6500000000000001</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F14" s="10">
         <f>'well info'!$E$3-$E14</f>
-        <v>18.850000000000001</v>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -945,18 +948,18 @@
         <v>9</v>
       </c>
       <c r="C15" s="6">
-        <v>44824.427083333336</v>
+        <v>44818.625</v>
       </c>
       <c r="D15" s="10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E15" s="10">
         <f>$D15-'well info'!$C$3</f>
-        <v>1.57</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="F15" s="10">
         <f>'well info'!$E$3-$E15</f>
-        <v>18.93</v>
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -967,18 +970,18 @@
         <v>9</v>
       </c>
       <c r="C16" s="6">
-        <v>44851.65625</v>
+        <v>44824.427083333336</v>
       </c>
       <c r="D16" s="10">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10">
         <f>$D16-'well info'!$C$3</f>
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="F16" s="10">
         <f>'well info'!$E$3-$E16</f>
-        <v>19.04</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -989,18 +992,18 @@
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>44886.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D17" s="10">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="E17" s="10">
         <f>$D17-'well info'!$C$3</f>
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="F17" s="10">
         <f>'well info'!$E$3-$E17</f>
-        <v>19.25</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1011,18 +1014,18 @@
         <v>9</v>
       </c>
       <c r="C18" s="6">
-        <v>44894.625</v>
+        <v>44886.625</v>
       </c>
       <c r="D18" s="10">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="E18" s="10">
         <f>$D18-'well info'!$C$3</f>
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="F18" s="10">
         <f>'well info'!$E$3-$E18</f>
-        <v>19.53</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1033,62 +1036,62 @@
         <v>9</v>
       </c>
       <c r="C19" s="6">
-        <v>44915.416666666664</v>
+        <v>44894.625</v>
       </c>
       <c r="D19" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E19" s="10">
         <f>$D19-'well info'!$C$3</f>
-        <v>1.1700000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="F19" s="10">
         <f>'well info'!$E$3-$E19</f>
-        <v>19.329999999999998</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>44775.510416666664</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D20" s="10">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="E20" s="10">
-        <f>$D20-'well info'!$C$4</f>
-        <v>1.52</v>
+        <f>$D20-'well info'!$C$3</f>
+        <v>1.1700000000000002</v>
       </c>
       <c r="F20" s="10">
-        <f>'well info'!$E$4-$E20</f>
-        <v>18.18</v>
+        <f>'well info'!$E$3-$E20</f>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="6">
-        <v>44791.404166666667</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D21" s="10">
-        <v>1.94</v>
+        <v>0.98</v>
       </c>
       <c r="E21" s="10">
-        <f>$D21-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D21-'well info'!$C$3</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F21" s="10">
-        <f>'well info'!$E$4-$E21</f>
-        <v>18.39</v>
+        <f>'well info'!$E$3-$E21</f>
+        <v>19.95</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1099,18 +1102,18 @@
         <v>7</v>
       </c>
       <c r="C22" s="6">
-        <v>44813.44027777778</v>
+        <v>44775.510416666664</v>
       </c>
       <c r="D22" s="10">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="E22" s="10">
-        <f>D22-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D22-'well info'!$C$4</f>
+        <v>1.52</v>
       </c>
       <c r="F22" s="10">
         <f>'well info'!$E$4-$E22</f>
-        <v>18.39</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1121,18 +1124,18 @@
         <v>7</v>
       </c>
       <c r="C23" s="6">
-        <v>44818.607638888891</v>
+        <v>44791.404166666667</v>
       </c>
       <c r="D23" s="10">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="E23" s="10">
-        <f>D23-'well info'!$C$4</f>
-        <v>1.29</v>
+        <f>$D23-'well info'!$C$4</f>
+        <v>1.31</v>
       </c>
       <c r="F23" s="10">
         <f>'well info'!$E$4-$E23</f>
-        <v>18.41</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1143,18 +1146,18 @@
         <v>7</v>
       </c>
       <c r="C24" s="6">
-        <v>44824.430555555555</v>
+        <v>44813.44027777778</v>
       </c>
       <c r="D24" s="10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="E24" s="10">
         <f>D24-'well info'!$C$4</f>
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F24" s="10">
         <f>'well info'!$E$4-$E24</f>
-        <v>18.45</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1165,18 +1168,18 @@
         <v>7</v>
       </c>
       <c r="C25" s="6">
-        <v>44851.65625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D25" s="10">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="E25" s="10">
         <f>D25-'well info'!$C$4</f>
-        <v>1.1299999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="F25" s="10">
         <f>'well info'!$E$4-$E25</f>
-        <v>18.57</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1187,18 +1190,18 @@
         <v>7</v>
       </c>
       <c r="C26" s="6">
-        <v>44886.625</v>
+        <v>44824.430555555555</v>
       </c>
       <c r="D26" s="10">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="E26" s="10">
         <f>D26-'well info'!$C$4</f>
-        <v>0.79999999999999993</v>
+        <v>1.25</v>
       </c>
       <c r="F26" s="10">
         <f>'well info'!$E$4-$E26</f>
-        <v>18.899999999999999</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1209,18 +1212,18 @@
         <v>7</v>
       </c>
       <c r="C27" s="6">
-        <v>44894.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D27" s="10">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="E27" s="10">
         <f>D27-'well info'!$C$4</f>
-        <v>0.62</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F27" s="10">
         <f>'well info'!$E$4-$E27</f>
-        <v>19.079999999999998</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1231,84 +1234,84 @@
         <v>7</v>
       </c>
       <c r="C28" s="6">
-        <v>44915.416666666664</v>
+        <v>44886.625</v>
       </c>
       <c r="D28" s="10">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="E28" s="10">
         <f>D28-'well info'!$C$4</f>
-        <v>0.7400000000000001</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="F28" s="10">
         <f>'well info'!$E$4-$E28</f>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6">
+        <v>44894.625</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="E29" s="10">
+        <f>D29-'well info'!$C$4</f>
+        <v>0.62</v>
+      </c>
+      <c r="F29" s="10">
+        <f>'well info'!$E$4-$E29</f>
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44915.416666666664</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1.37</v>
+      </c>
+      <c r="E30" s="10">
+        <f>D30-'well info'!$C$4</f>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="F30" s="10">
+        <f>'well info'!$E$4-$E30</f>
         <v>18.96</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D29" s="10">
-        <v>2.83</v>
-      </c>
-      <c r="E29" s="10">
-        <f>$D29-'well info'!$C$5</f>
-        <v>2.15</v>
-      </c>
-      <c r="F29" s="10">
-        <f>'well info'!$E$5-$E29</f>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="6">
-        <v>44791.406944444447</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2.71</v>
-      </c>
-      <c r="E30" s="10">
-        <f>$D30-'well info'!$C$5</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F30" s="10">
-        <f>'well info'!$E$5-$E30</f>
-        <v>18.869999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="6">
-        <v>44813.447916666664</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D31" s="10">
-        <v>2.89</v>
+        <v>1.08</v>
       </c>
       <c r="E31" s="10">
-        <f>$D31-'well info'!$C$5</f>
-        <v>2.21</v>
+        <f>D31-'well info'!$C$4</f>
+        <v>0.45000000000000007</v>
       </c>
       <c r="F31" s="10">
-        <f>'well info'!$E$5-$E31</f>
-        <v>18.689999999999998</v>
+        <f>'well info'!$E$4-$E31</f>
+        <v>19.25</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1319,18 +1322,18 @@
         <v>6</v>
       </c>
       <c r="C32" s="6">
-        <v>44818.607638888891</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D32" s="10">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="E32" s="10">
         <f>$D32-'well info'!$C$5</f>
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="F32" s="10">
         <f>'well info'!$E$5-$E32</f>
-        <v>18.809999999999999</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1341,18 +1344,18 @@
         <v>6</v>
       </c>
       <c r="C33" s="6">
-        <v>44824.431944444441</v>
+        <v>44791.406944444447</v>
       </c>
       <c r="D33" s="10">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="E33" s="10">
         <f>$D33-'well info'!$C$5</f>
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F33" s="10">
         <f>'well info'!$E$5-$E33</f>
-        <v>18.899999999999999</v>
+        <v>18.869999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1363,18 +1366,18 @@
         <v>6</v>
       </c>
       <c r="C34" s="6">
-        <v>44886.618055555555</v>
+        <v>44813.447916666664</v>
       </c>
       <c r="D34" s="10">
-        <v>2.23</v>
+        <v>2.89</v>
       </c>
       <c r="E34" s="10">
         <f>$D34-'well info'!$C$5</f>
-        <v>1.5499999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="F34" s="10">
         <f>'well info'!$E$5-$E34</f>
-        <v>19.349999999999998</v>
+        <v>18.689999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1385,18 +1388,18 @@
         <v>6</v>
       </c>
       <c r="C35" s="6">
-        <v>44894.625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D35" s="10">
-        <v>1.81</v>
+        <v>2.77</v>
       </c>
       <c r="E35" s="10">
         <f>$D35-'well info'!$C$5</f>
-        <v>1.1299999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="F35" s="10">
         <f>'well info'!$E$5-$E35</f>
-        <v>19.77</v>
+        <v>18.809999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1407,106 +1410,106 @@
         <v>6</v>
       </c>
       <c r="C36" s="6">
-        <v>44915.416666666664</v>
+        <v>44824.431944444441</v>
       </c>
       <c r="D36" s="10">
-        <v>2.11</v>
+        <v>2.68</v>
       </c>
       <c r="E36" s="10">
         <f>$D36-'well info'!$C$5</f>
-        <v>1.4299999999999997</v>
+        <v>2</v>
       </c>
       <c r="F36" s="10">
         <f>'well info'!$E$5-$E36</f>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="6">
+        <v>44886.618055555555</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2.23</v>
+      </c>
+      <c r="E37" s="10">
+        <f>$D37-'well info'!$C$5</f>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="F37" s="10">
+        <f>'well info'!$E$5-$E37</f>
+        <v>19.349999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6">
+        <v>44894.625</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.81</v>
+      </c>
+      <c r="E38" s="10">
+        <f>$D38-'well info'!$C$5</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F38" s="10">
+        <f>'well info'!$E$5-$E38</f>
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="6">
+        <v>44915.416666666664</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="E39" s="10">
+        <f>$D39-'well info'!$C$5</f>
+        <v>1.4299999999999997</v>
+      </c>
+      <c r="F39" s="10">
+        <f>'well info'!$E$5-$E39</f>
         <v>19.47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D37" s="10">
-        <v>99</v>
-      </c>
-      <c r="E37" s="10">
-        <f>$D37-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F37" s="10">
-        <f>'well info'!$E$2-$E37</f>
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="6">
-        <v>44791.408333333333</v>
-      </c>
-      <c r="D38" s="10">
-        <v>99</v>
-      </c>
-      <c r="E38" s="10">
-        <f>$D38-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F38" s="10">
-        <f>'well info'!$E$2-$E38</f>
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="6">
-        <v>44813.458333333336</v>
-      </c>
-      <c r="D39" s="10">
-        <v>99</v>
-      </c>
-      <c r="E39" s="10">
-        <f>$D39-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F39" s="10">
-        <f>'well info'!$E$2-$E39</f>
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C40" s="6">
-        <v>44818.645833333336</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D40" s="10">
-        <v>99</v>
+        <v>1.2</v>
       </c>
       <c r="E40" s="10">
-        <f>$D40-'well info'!$C$6</f>
-        <v>98.3</v>
+        <f>$D40-'well info'!$C$5</f>
+        <v>0.51999999999999991</v>
       </c>
       <c r="F40" s="10">
-        <f>'well info'!$E$2-$E40</f>
-        <v>-77</v>
+        <f>'well info'!$E$5-$E40</f>
+        <v>20.38</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1517,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="6">
-        <v>44824.434027777781</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D41" s="10">
         <v>99</v>
@@ -1535,66 +1538,176 @@
       <c r="A42" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="6">
-        <v>44886.597222222219</v>
-      </c>
-      <c r="D42" s="13">
-        <v>4.4800000000000004</v>
+        <v>44791.408333333333</v>
+      </c>
+      <c r="D42" s="10">
+        <v>99</v>
       </c>
       <c r="E42" s="10">
-        <f>$D42-'well info'!$C$8</f>
-        <v>4.2</v>
+        <f>$D42-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F42" s="10">
-        <f>'well info'!$E$6-$E42</f>
-        <v>18.100000000000001</v>
+        <f>'well info'!$E$2-$E42</f>
+        <v>-77</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="6">
-        <v>44894.625</v>
-      </c>
-      <c r="D43" s="13">
-        <v>2.65</v>
+        <v>44813.458333333336</v>
+      </c>
+      <c r="D43" s="10">
+        <v>99</v>
       </c>
       <c r="E43" s="10">
-        <f>$D43-'well info'!$C$8</f>
-        <v>2.37</v>
+        <f>$D43-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F43" s="10">
-        <f>'well info'!$E$6-$E43</f>
-        <v>19.93</v>
+        <f>'well info'!$E$2-$E43</f>
+        <v>-77</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="6">
+        <v>44818.645833333336</v>
+      </c>
+      <c r="D44" s="10">
+        <v>99</v>
+      </c>
+      <c r="E44" s="10">
+        <f>$D44-'well info'!$C$6</f>
+        <v>98.3</v>
+      </c>
+      <c r="F44" s="10">
+        <f>'well info'!$E$2-$E44</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44824.434027777781</v>
+      </c>
+      <c r="D45" s="10">
+        <v>99</v>
+      </c>
+      <c r="E45" s="10">
+        <f>$D45-'well info'!$C$6</f>
+        <v>98.3</v>
+      </c>
+      <c r="F45" s="10">
+        <f>'well info'!$E$2-$E45</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6">
+        <v>44886.597222222219</v>
+      </c>
+      <c r="D46" s="13">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E46" s="10">
+        <f>$D46-'well info'!$C$8</f>
+        <v>4.2</v>
+      </c>
+      <c r="F46" s="10">
+        <f>'well info'!$E$6-$E46</f>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6">
+        <v>44894.625</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2.65</v>
+      </c>
+      <c r="E47" s="10">
+        <f>$D47-'well info'!$C$8</f>
+        <v>2.37</v>
+      </c>
+      <c r="F47" s="10">
+        <f>'well info'!$E$6-$E47</f>
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6">
         <v>44915.416666666664</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D48" s="13">
         <v>2.7</v>
       </c>
-      <c r="E44" s="10">
-        <f>$D44-'well info'!$C$8</f>
+      <c r="E48" s="10">
+        <f>$D48-'well info'!$C$8</f>
         <v>2.42</v>
       </c>
-      <c r="F44" s="10">
-        <f>'well info'!$E$6-$E44</f>
+      <c r="F48" s="10">
+        <f>'well info'!$E$6-$E48</f>
         <v>19.880000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6">
+        <v>44930.597222222219</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1.38</v>
+      </c>
+      <c r="E49" s="10">
+        <f>$D49-'well info'!$C$8</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="F49" s="10">
+        <f>'well info'!$E$6-$E49</f>
+        <v>21.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C13A5-D984-452C-9630-3D79184E7510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CCB33-F99D-4C8C-A5D0-DB3C12EA3766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,9 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,26 +871,26 @@
         <v>20.69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C12" s="6">
-        <v>44775.743055555555</v>
+        <v>44956.597222222219</v>
       </c>
       <c r="D12" s="10">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="E12" s="10">
-        <f>$D12-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <f>$D12-'well info'!$C$2</f>
+        <v>0.81</v>
       </c>
       <c r="F12" s="10">
-        <f>'well info'!$E$3-$E12</f>
-        <v>18.829999999999998</v>
+        <f>'well info'!$E$2-$E12</f>
+        <v>20.490000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -904,18 +901,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="6">
-        <v>44791.402777777781</v>
+        <v>44775.743055555555</v>
       </c>
       <c r="D13" s="10">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E13" s="10">
         <f>$D13-'well info'!$C$3</f>
-        <v>1.6199999999999999</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F13" s="10">
         <f>'well info'!$E$3-$E13</f>
-        <v>18.88</v>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -926,18 +923,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>44813.4375</v>
+        <v>44791.402777777781</v>
       </c>
       <c r="D14" s="10">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E14" s="10">
         <f>$D14-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="F14" s="10">
         <f>'well info'!$E$3-$E14</f>
-        <v>18.829999999999998</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -948,18 +945,18 @@
         <v>9</v>
       </c>
       <c r="C15" s="6">
-        <v>44818.625</v>
+        <v>44813.4375</v>
       </c>
       <c r="D15" s="10">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E15" s="10">
         <f>$D15-'well info'!$C$3</f>
-        <v>1.6500000000000001</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F15" s="10">
         <f>'well info'!$E$3-$E15</f>
-        <v>18.850000000000001</v>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -970,18 +967,18 @@
         <v>9</v>
       </c>
       <c r="C16" s="6">
-        <v>44824.427083333336</v>
+        <v>44818.625</v>
       </c>
       <c r="D16" s="10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E16" s="10">
         <f>$D16-'well info'!$C$3</f>
-        <v>1.57</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="F16" s="10">
         <f>'well info'!$E$3-$E16</f>
-        <v>18.93</v>
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -992,18 +989,18 @@
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>44851.65625</v>
+        <v>44824.427083333336</v>
       </c>
       <c r="D17" s="10">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="E17" s="10">
         <f>$D17-'well info'!$C$3</f>
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="F17" s="10">
         <f>'well info'!$E$3-$E17</f>
-        <v>19.04</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1014,18 +1011,18 @@
         <v>9</v>
       </c>
       <c r="C18" s="6">
-        <v>44886.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D18" s="10">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="E18" s="10">
         <f>$D18-'well info'!$C$3</f>
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="F18" s="10">
         <f>'well info'!$E$3-$E18</f>
-        <v>19.25</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1036,18 +1033,18 @@
         <v>9</v>
       </c>
       <c r="C19" s="6">
-        <v>44894.625</v>
+        <v>44886.625</v>
       </c>
       <c r="D19" s="10">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="E19" s="10">
         <f>$D19-'well info'!$C$3</f>
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="F19" s="10">
         <f>'well info'!$E$3-$E19</f>
-        <v>19.53</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1058,18 +1055,18 @@
         <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>44915.416666666664</v>
+        <v>44894.625</v>
       </c>
       <c r="D20" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E20" s="10">
         <f>$D20-'well info'!$C$3</f>
-        <v>1.1700000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="F20" s="10">
         <f>'well info'!$E$3-$E20</f>
-        <v>19.329999999999998</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1080,62 +1077,62 @@
         <v>9</v>
       </c>
       <c r="C21" s="6">
-        <v>44930.597222222219</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D21" s="10">
-        <v>0.98</v>
+        <v>1.6</v>
       </c>
       <c r="E21" s="10">
         <f>$D21-'well info'!$C$3</f>
-        <v>0.55000000000000004</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="F21" s="10">
         <f>'well info'!$E$3-$E21</f>
-        <v>19.95</v>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6">
-        <v>44775.510416666664</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D22" s="10">
-        <v>2.15</v>
+        <v>0.98</v>
       </c>
       <c r="E22" s="10">
-        <f>$D22-'well info'!$C$4</f>
-        <v>1.52</v>
+        <f>$D22-'well info'!$C$3</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F22" s="10">
-        <f>'well info'!$E$4-$E22</f>
-        <v>18.18</v>
+        <f>'well info'!$E$3-$E22</f>
+        <v>19.95</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6">
-        <v>44791.404166666667</v>
+        <v>44956.597222222219</v>
       </c>
       <c r="D23" s="10">
-        <v>1.94</v>
+        <v>1.2</v>
       </c>
       <c r="E23" s="10">
-        <f>$D23-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D23-'well info'!$C$3</f>
+        <v>0.77</v>
       </c>
       <c r="F23" s="10">
-        <f>'well info'!$E$4-$E23</f>
-        <v>18.39</v>
+        <f>'well info'!$E$3-$E23</f>
+        <v>19.73</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1146,18 +1143,18 @@
         <v>7</v>
       </c>
       <c r="C24" s="6">
-        <v>44813.44027777778</v>
+        <v>44775.510416666664</v>
       </c>
       <c r="D24" s="10">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="E24" s="10">
-        <f>D24-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D24-'well info'!$C$4</f>
+        <v>1.52</v>
       </c>
       <c r="F24" s="10">
         <f>'well info'!$E$4-$E24</f>
-        <v>18.39</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1168,18 +1165,18 @@
         <v>7</v>
       </c>
       <c r="C25" s="6">
-        <v>44818.607638888891</v>
+        <v>44791.404166666667</v>
       </c>
       <c r="D25" s="10">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="E25" s="10">
-        <f>D25-'well info'!$C$4</f>
-        <v>1.29</v>
+        <f>$D25-'well info'!$C$4</f>
+        <v>1.31</v>
       </c>
       <c r="F25" s="10">
         <f>'well info'!$E$4-$E25</f>
-        <v>18.41</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1190,18 +1187,18 @@
         <v>7</v>
       </c>
       <c r="C26" s="6">
-        <v>44824.430555555555</v>
+        <v>44813.44027777778</v>
       </c>
       <c r="D26" s="10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="E26" s="10">
         <f>D26-'well info'!$C$4</f>
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F26" s="10">
         <f>'well info'!$E$4-$E26</f>
-        <v>18.45</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1212,18 +1209,18 @@
         <v>7</v>
       </c>
       <c r="C27" s="6">
-        <v>44851.65625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D27" s="10">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="E27" s="10">
         <f>D27-'well info'!$C$4</f>
-        <v>1.1299999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="F27" s="10">
         <f>'well info'!$E$4-$E27</f>
-        <v>18.57</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1234,18 +1231,18 @@
         <v>7</v>
       </c>
       <c r="C28" s="6">
-        <v>44886.625</v>
+        <v>44824.430555555555</v>
       </c>
       <c r="D28" s="10">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="E28" s="10">
         <f>D28-'well info'!$C$4</f>
-        <v>0.79999999999999993</v>
+        <v>1.25</v>
       </c>
       <c r="F28" s="10">
         <f>'well info'!$E$4-$E28</f>
-        <v>18.899999999999999</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1256,18 +1253,18 @@
         <v>7</v>
       </c>
       <c r="C29" s="6">
-        <v>44894.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D29" s="10">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="E29" s="10">
         <f>D29-'well info'!$C$4</f>
-        <v>0.62</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F29" s="10">
         <f>'well info'!$E$4-$E29</f>
-        <v>19.079999999999998</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1278,18 +1275,18 @@
         <v>7</v>
       </c>
       <c r="C30" s="6">
-        <v>44915.416666666664</v>
+        <v>44886.625</v>
       </c>
       <c r="D30" s="10">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="E30" s="10">
         <f>D30-'well info'!$C$4</f>
-        <v>0.7400000000000001</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="F30" s="10">
         <f>'well info'!$E$4-$E30</f>
-        <v>18.96</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1300,84 +1297,84 @@
         <v>7</v>
       </c>
       <c r="C31" s="6">
-        <v>44930.597222222219</v>
+        <v>44894.625</v>
       </c>
       <c r="D31" s="10">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="E31" s="10">
         <f>D31-'well info'!$C$4</f>
-        <v>0.45000000000000007</v>
+        <v>0.62</v>
       </c>
       <c r="F31" s="10">
         <f>'well info'!$E$4-$E31</f>
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44915.416666666664</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1.37</v>
+      </c>
+      <c r="E32" s="10">
+        <f>D32-'well info'!$C$4</f>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="F32" s="10">
+        <f>'well info'!$E$4-$E32</f>
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44930.597222222219</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="E33" s="10">
+        <f>D33-'well info'!$C$4</f>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="F33" s="10">
+        <f>'well info'!$E$4-$E33</f>
         <v>19.25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2.83</v>
-      </c>
-      <c r="E32" s="10">
-        <f>$D32-'well info'!$C$5</f>
-        <v>2.15</v>
-      </c>
-      <c r="F32" s="10">
-        <f>'well info'!$E$5-$E32</f>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="6">
-        <v>44791.406944444447</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2.71</v>
-      </c>
-      <c r="E33" s="10">
-        <f>$D33-'well info'!$C$5</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F33" s="10">
-        <f>'well info'!$E$5-$E33</f>
-        <v>18.869999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C34" s="6">
-        <v>44813.447916666664</v>
+        <v>44956.597222222219</v>
       </c>
       <c r="D34" s="10">
-        <v>2.89</v>
+        <v>1.2</v>
       </c>
       <c r="E34" s="10">
-        <f>$D34-'well info'!$C$5</f>
-        <v>2.21</v>
+        <f>D34-'well info'!$C$4</f>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F34" s="10">
-        <f>'well info'!$E$5-$E34</f>
-        <v>18.689999999999998</v>
+        <f>'well info'!$E$4-$E34</f>
+        <v>19.13</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1388,18 +1385,18 @@
         <v>6</v>
       </c>
       <c r="C35" s="6">
-        <v>44818.607638888891</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D35" s="10">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="E35" s="10">
         <f>$D35-'well info'!$C$5</f>
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="F35" s="10">
         <f>'well info'!$E$5-$E35</f>
-        <v>18.809999999999999</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1410,18 +1407,18 @@
         <v>6</v>
       </c>
       <c r="C36" s="6">
-        <v>44824.431944444441</v>
+        <v>44791.406944444447</v>
       </c>
       <c r="D36" s="10">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="E36" s="10">
         <f>$D36-'well info'!$C$5</f>
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F36" s="10">
         <f>'well info'!$E$5-$E36</f>
-        <v>18.899999999999999</v>
+        <v>18.869999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1432,18 +1429,18 @@
         <v>6</v>
       </c>
       <c r="C37" s="6">
-        <v>44886.618055555555</v>
+        <v>44813.447916666664</v>
       </c>
       <c r="D37" s="10">
-        <v>2.23</v>
+        <v>2.89</v>
       </c>
       <c r="E37" s="10">
         <f>$D37-'well info'!$C$5</f>
-        <v>1.5499999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="F37" s="10">
         <f>'well info'!$E$5-$E37</f>
-        <v>19.349999999999998</v>
+        <v>18.689999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1454,18 +1451,18 @@
         <v>6</v>
       </c>
       <c r="C38" s="6">
-        <v>44894.625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D38" s="10">
-        <v>1.81</v>
+        <v>2.77</v>
       </c>
       <c r="E38" s="10">
         <f>$D38-'well info'!$C$5</f>
-        <v>1.1299999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="F38" s="10">
         <f>'well info'!$E$5-$E38</f>
-        <v>19.77</v>
+        <v>18.809999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1476,18 +1473,18 @@
         <v>6</v>
       </c>
       <c r="C39" s="6">
-        <v>44915.416666666664</v>
+        <v>44824.431944444441</v>
       </c>
       <c r="D39" s="10">
-        <v>2.11</v>
+        <v>2.68</v>
       </c>
       <c r="E39" s="10">
         <f>$D39-'well info'!$C$5</f>
-        <v>1.4299999999999997</v>
+        <v>2</v>
       </c>
       <c r="F39" s="10">
         <f>'well info'!$E$5-$E39</f>
-        <v>19.47</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1498,106 +1495,106 @@
         <v>6</v>
       </c>
       <c r="C40" s="6">
-        <v>44930.597222222219</v>
+        <v>44886.618055555555</v>
       </c>
       <c r="D40" s="10">
-        <v>1.2</v>
+        <v>2.23</v>
       </c>
       <c r="E40" s="10">
         <f>$D40-'well info'!$C$5</f>
-        <v>0.51999999999999991</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="F40" s="10">
         <f>'well info'!$E$5-$E40</f>
+        <v>19.349999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6">
+        <v>44894.625</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1.81</v>
+      </c>
+      <c r="E41" s="10">
+        <f>$D41-'well info'!$C$5</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F41" s="10">
+        <f>'well info'!$E$5-$E41</f>
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6">
+        <v>44915.416666666664</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="E42" s="10">
+        <f>$D42-'well info'!$C$5</f>
+        <v>1.4299999999999997</v>
+      </c>
+      <c r="F42" s="10">
+        <f>'well info'!$E$5-$E42</f>
+        <v>19.47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6">
+        <v>44930.597222222219</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E43" s="10">
+        <f>$D43-'well info'!$C$5</f>
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="F43" s="10">
+        <f>'well info'!$E$5-$E43</f>
         <v>20.38</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D41" s="10">
-        <v>99</v>
-      </c>
-      <c r="E41" s="10">
-        <f>$D41-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F41" s="10">
-        <f>'well info'!$E$2-$E41</f>
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="6">
-        <v>44791.408333333333</v>
-      </c>
-      <c r="D42" s="10">
-        <v>99</v>
-      </c>
-      <c r="E42" s="10">
-        <f>$D42-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F42" s="10">
-        <f>'well info'!$E$2-$E42</f>
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="6">
-        <v>44813.458333333336</v>
-      </c>
-      <c r="D43" s="10">
-        <v>99</v>
-      </c>
-      <c r="E43" s="10">
-        <f>$D43-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F43" s="10">
-        <f>'well info'!$E$2-$E43</f>
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C44" s="6">
-        <v>44818.645833333336</v>
+        <v>44956.597222222219</v>
       </c>
       <c r="D44" s="10">
-        <v>99</v>
+        <v>1.56</v>
       </c>
       <c r="E44" s="10">
-        <f>$D44-'well info'!$C$6</f>
-        <v>98.3</v>
+        <f>$D44-'well info'!$C$5</f>
+        <v>0.88</v>
       </c>
       <c r="F44" s="10">
-        <f>'well info'!$E$2-$E44</f>
-        <v>-77</v>
+        <f>'well info'!$E$5-$E44</f>
+        <v>20.02</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1608,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="6">
-        <v>44824.434027777781</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D45" s="10">
         <v>99</v>
@@ -1626,88 +1623,176 @@
       <c r="A46" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="6">
-        <v>44886.597222222219</v>
-      </c>
-      <c r="D46" s="13">
-        <v>4.4800000000000004</v>
+        <v>44791.408333333333</v>
+      </c>
+      <c r="D46" s="10">
+        <v>99</v>
       </c>
       <c r="E46" s="10">
-        <f>$D46-'well info'!$C$8</f>
-        <v>4.2</v>
+        <f>$D46-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F46" s="10">
-        <f>'well info'!$E$6-$E46</f>
-        <v>18.100000000000001</v>
+        <f>'well info'!$E$2-$E46</f>
+        <v>-77</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="6">
-        <v>44894.625</v>
-      </c>
-      <c r="D47" s="13">
-        <v>2.65</v>
+        <v>44813.458333333336</v>
+      </c>
+      <c r="D47" s="10">
+        <v>99</v>
       </c>
       <c r="E47" s="10">
-        <f>$D47-'well info'!$C$8</f>
-        <v>2.37</v>
+        <f>$D47-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F47" s="10">
-        <f>'well info'!$E$6-$E47</f>
-        <v>19.93</v>
+        <f>'well info'!$E$2-$E47</f>
+        <v>-77</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="6">
-        <v>44915.416666666664</v>
-      </c>
-      <c r="D48" s="13">
-        <v>2.7</v>
+        <v>44818.645833333336</v>
+      </c>
+      <c r="D48" s="10">
+        <v>99</v>
       </c>
       <c r="E48" s="10">
-        <f>$D48-'well info'!$C$8</f>
-        <v>2.42</v>
+        <f>$D48-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F48" s="10">
-        <f>'well info'!$E$6-$E48</f>
-        <v>19.880000000000003</v>
+        <f>'well info'!$E$2-$E48</f>
+        <v>-77</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="6">
+        <v>44824.434027777781</v>
+      </c>
+      <c r="D49" s="10">
+        <v>99</v>
+      </c>
+      <c r="E49" s="10">
+        <f>$D49-'well info'!$C$6</f>
+        <v>98.3</v>
+      </c>
+      <c r="F49" s="10">
+        <f>'well info'!$E$2-$E49</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6">
+        <v>44894.625</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2.65</v>
+      </c>
+      <c r="E50" s="10">
+        <f>$D50-'well info'!$C$8</f>
+        <v>2.37</v>
+      </c>
+      <c r="F50" s="10">
+        <f>'well info'!$E$6-$E50</f>
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6">
+        <v>44915.416666666664</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="E51" s="10">
+        <f>$D51-'well info'!$C$8</f>
+        <v>2.42</v>
+      </c>
+      <c r="F51" s="10">
+        <f>'well info'!$E$6-$E51</f>
+        <v>19.880000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6">
         <v>44930.597222222219</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D52" s="13">
         <v>1.38</v>
       </c>
-      <c r="E49" s="10">
-        <f>$D49-'well info'!$C$8</f>
+      <c r="E52" s="10">
+        <f>$D52-'well info'!$C$8</f>
         <v>1.0999999999999999</v>
       </c>
-      <c r="F49" s="10">
-        <f>'well info'!$E$6-$E49</f>
+      <c r="F52" s="10">
+        <f>'well info'!$E$6-$E52</f>
         <v>21.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6">
+        <v>44956.597222222219</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="E53" s="10">
+        <f>$D53-'well info'!$C$8</f>
+        <v>1.28</v>
+      </c>
+      <c r="F53" s="10">
+        <f>'well info'!$E$6-$E53</f>
+        <v>21.02</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CCB33-F99D-4C8C-A5D0-DB3C12EA3766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991AB0F9-D6EE-4CFF-8F60-9EA2BA321B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="44">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,6 +301,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,26 +896,26 @@
         <v>20.490000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C13" s="6">
-        <v>44775.743055555555</v>
+        <v>44979.451388888891</v>
       </c>
       <c r="D13" s="10">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="E13" s="10">
-        <f>$D13-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <f>$D13-'well info'!$C$2</f>
+        <v>0.92999999999999994</v>
       </c>
       <c r="F13" s="10">
-        <f>'well info'!$E$3-$E13</f>
-        <v>18.829999999999998</v>
+        <f>'well info'!$E$2-$E13</f>
+        <v>20.37</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -923,18 +926,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>44791.402777777781</v>
+        <v>44775.743055555555</v>
       </c>
       <c r="D14" s="10">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E14" s="10">
         <f>$D14-'well info'!$C$3</f>
-        <v>1.6199999999999999</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F14" s="10">
         <f>'well info'!$E$3-$E14</f>
-        <v>18.88</v>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -945,18 +948,18 @@
         <v>9</v>
       </c>
       <c r="C15" s="6">
-        <v>44813.4375</v>
+        <v>44791.402777777781</v>
       </c>
       <c r="D15" s="10">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E15" s="10">
         <f>$D15-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="F15" s="10">
         <f>'well info'!$E$3-$E15</f>
-        <v>18.829999999999998</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -967,18 +970,18 @@
         <v>9</v>
       </c>
       <c r="C16" s="6">
-        <v>44818.625</v>
+        <v>44813.4375</v>
       </c>
       <c r="D16" s="10">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E16" s="10">
         <f>$D16-'well info'!$C$3</f>
-        <v>1.6500000000000001</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F16" s="10">
         <f>'well info'!$E$3-$E16</f>
-        <v>18.850000000000001</v>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -989,18 +992,18 @@
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>44824.427083333336</v>
+        <v>44818.625</v>
       </c>
       <c r="D17" s="10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E17" s="10">
         <f>$D17-'well info'!$C$3</f>
-        <v>1.57</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="F17" s="10">
         <f>'well info'!$E$3-$E17</f>
-        <v>18.93</v>
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1011,18 +1014,18 @@
         <v>9</v>
       </c>
       <c r="C18" s="6">
-        <v>44851.65625</v>
+        <v>44824.427083333336</v>
       </c>
       <c r="D18" s="10">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="E18" s="10">
         <f>$D18-'well info'!$C$3</f>
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="F18" s="10">
         <f>'well info'!$E$3-$E18</f>
-        <v>19.04</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1033,18 +1036,18 @@
         <v>9</v>
       </c>
       <c r="C19" s="6">
-        <v>44886.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D19" s="10">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="E19" s="10">
         <f>$D19-'well info'!$C$3</f>
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="F19" s="10">
         <f>'well info'!$E$3-$E19</f>
-        <v>19.25</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1055,18 +1058,18 @@
         <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>44894.625</v>
+        <v>44886.625</v>
       </c>
       <c r="D20" s="10">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="E20" s="10">
         <f>$D20-'well info'!$C$3</f>
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="F20" s="10">
         <f>'well info'!$E$3-$E20</f>
-        <v>19.53</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1077,18 +1080,18 @@
         <v>9</v>
       </c>
       <c r="C21" s="6">
-        <v>44915.416666666664</v>
+        <v>44894.625</v>
       </c>
       <c r="D21" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E21" s="10">
         <f>$D21-'well info'!$C$3</f>
-        <v>1.1700000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="F21" s="10">
         <f>'well info'!$E$3-$E21</f>
-        <v>19.329999999999998</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1099,18 +1102,18 @@
         <v>9</v>
       </c>
       <c r="C22" s="6">
-        <v>44930.597222222219</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D22" s="10">
-        <v>0.98</v>
+        <v>1.6</v>
       </c>
       <c r="E22" s="10">
         <f>$D22-'well info'!$C$3</f>
-        <v>0.55000000000000004</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="F22" s="10">
         <f>'well info'!$E$3-$E22</f>
-        <v>19.95</v>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1121,62 +1124,62 @@
         <v>9</v>
       </c>
       <c r="C23" s="6">
-        <v>44956.597222222219</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D23" s="10">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="E23" s="10">
         <f>$D23-'well info'!$C$3</f>
-        <v>0.77</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F23" s="10">
         <f>'well info'!$E$3-$E23</f>
-        <v>19.73</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="6">
-        <v>44775.510416666664</v>
+        <v>44956.597222222219</v>
       </c>
       <c r="D24" s="10">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="E24" s="10">
-        <f>$D24-'well info'!$C$4</f>
-        <v>1.52</v>
+        <f>$D24-'well info'!$C$3</f>
+        <v>0.77</v>
       </c>
       <c r="F24" s="10">
-        <f>'well info'!$E$4-$E24</f>
-        <v>18.18</v>
+        <f>'well info'!$E$3-$E24</f>
+        <v>19.73</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6">
-        <v>44791.404166666667</v>
+        <v>44979.451388888891</v>
       </c>
       <c r="D25" s="10">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="E25" s="10">
-        <f>$D25-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D25-'well info'!$C$3</f>
+        <v>0.92000000000000015</v>
       </c>
       <c r="F25" s="10">
-        <f>'well info'!$E$4-$E25</f>
-        <v>18.39</v>
+        <f>'well info'!$E$3-$E25</f>
+        <v>19.579999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1187,18 +1190,18 @@
         <v>7</v>
       </c>
       <c r="C26" s="6">
-        <v>44813.44027777778</v>
+        <v>44775.510416666664</v>
       </c>
       <c r="D26" s="10">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="E26" s="10">
-        <f>D26-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D26-'well info'!$C$4</f>
+        <v>1.52</v>
       </c>
       <c r="F26" s="10">
         <f>'well info'!$E$4-$E26</f>
-        <v>18.39</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1209,18 +1212,18 @@
         <v>7</v>
       </c>
       <c r="C27" s="6">
-        <v>44818.607638888891</v>
+        <v>44791.404166666667</v>
       </c>
       <c r="D27" s="10">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="E27" s="10">
-        <f>D27-'well info'!$C$4</f>
-        <v>1.29</v>
+        <f>$D27-'well info'!$C$4</f>
+        <v>1.31</v>
       </c>
       <c r="F27" s="10">
         <f>'well info'!$E$4-$E27</f>
-        <v>18.41</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1231,18 +1234,18 @@
         <v>7</v>
       </c>
       <c r="C28" s="6">
-        <v>44824.430555555555</v>
+        <v>44813.44027777778</v>
       </c>
       <c r="D28" s="10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="E28" s="10">
         <f>D28-'well info'!$C$4</f>
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F28" s="10">
         <f>'well info'!$E$4-$E28</f>
-        <v>18.45</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1253,18 +1256,18 @@
         <v>7</v>
       </c>
       <c r="C29" s="6">
-        <v>44851.65625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D29" s="10">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="E29" s="10">
         <f>D29-'well info'!$C$4</f>
-        <v>1.1299999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="F29" s="10">
         <f>'well info'!$E$4-$E29</f>
-        <v>18.57</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1275,18 +1278,18 @@
         <v>7</v>
       </c>
       <c r="C30" s="6">
-        <v>44886.625</v>
+        <v>44824.430555555555</v>
       </c>
       <c r="D30" s="10">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="E30" s="10">
         <f>D30-'well info'!$C$4</f>
-        <v>0.79999999999999993</v>
+        <v>1.25</v>
       </c>
       <c r="F30" s="10">
         <f>'well info'!$E$4-$E30</f>
-        <v>18.899999999999999</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1297,18 +1300,18 @@
         <v>7</v>
       </c>
       <c r="C31" s="6">
-        <v>44894.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D31" s="10">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="E31" s="10">
         <f>D31-'well info'!$C$4</f>
-        <v>0.62</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F31" s="10">
         <f>'well info'!$E$4-$E31</f>
-        <v>19.079999999999998</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1319,18 +1322,18 @@
         <v>7</v>
       </c>
       <c r="C32" s="6">
-        <v>44915.416666666664</v>
+        <v>44886.625</v>
       </c>
       <c r="D32" s="10">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="E32" s="10">
         <f>D32-'well info'!$C$4</f>
-        <v>0.7400000000000001</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="F32" s="10">
         <f>'well info'!$E$4-$E32</f>
-        <v>18.96</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1341,18 +1344,18 @@
         <v>7</v>
       </c>
       <c r="C33" s="6">
-        <v>44930.597222222219</v>
+        <v>44894.625</v>
       </c>
       <c r="D33" s="10">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="E33" s="10">
         <f>D33-'well info'!$C$4</f>
-        <v>0.45000000000000007</v>
+        <v>0.62</v>
       </c>
       <c r="F33" s="10">
         <f>'well info'!$E$4-$E33</f>
-        <v>19.25</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1363,84 +1366,84 @@
         <v>7</v>
       </c>
       <c r="C34" s="6">
-        <v>44956.597222222219</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D34" s="10">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="E34" s="10">
         <f>D34-'well info'!$C$4</f>
-        <v>0.56999999999999995</v>
+        <v>0.7400000000000001</v>
       </c>
       <c r="F34" s="10">
         <f>'well info'!$E$4-$E34</f>
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6">
+        <v>44930.597222222219</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="E35" s="10">
+        <f>D35-'well info'!$C$4</f>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="F35" s="10">
+        <f>'well info'!$E$4-$E35</f>
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44956.597222222219</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E36" s="10">
+        <f>D36-'well info'!$C$4</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F36" s="10">
+        <f>'well info'!$E$4-$E36</f>
         <v>19.13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D35" s="10">
-        <v>2.83</v>
-      </c>
-      <c r="E35" s="10">
-        <f>$D35-'well info'!$C$5</f>
-        <v>2.15</v>
-      </c>
-      <c r="F35" s="10">
-        <f>'well info'!$E$5-$E35</f>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6">
-        <v>44791.406944444447</v>
-      </c>
-      <c r="D36" s="10">
-        <v>2.71</v>
-      </c>
-      <c r="E36" s="10">
-        <f>$D36-'well info'!$C$5</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F36" s="10">
-        <f>'well info'!$E$5-$E36</f>
-        <v>18.869999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C37" s="6">
-        <v>44813.447916666664</v>
+        <v>44979.451388888891</v>
       </c>
       <c r="D37" s="10">
-        <v>2.89</v>
+        <v>1.27</v>
       </c>
       <c r="E37" s="10">
-        <f>$D37-'well info'!$C$5</f>
-        <v>2.21</v>
+        <f>D37-'well info'!$C$4</f>
+        <v>0.64</v>
       </c>
       <c r="F37" s="10">
-        <f>'well info'!$E$5-$E37</f>
-        <v>18.689999999999998</v>
+        <f>'well info'!$E$4-$E37</f>
+        <v>19.059999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1451,18 +1454,18 @@
         <v>6</v>
       </c>
       <c r="C38" s="6">
-        <v>44818.607638888891</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D38" s="10">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="E38" s="10">
         <f>$D38-'well info'!$C$5</f>
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="F38" s="10">
         <f>'well info'!$E$5-$E38</f>
-        <v>18.809999999999999</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1473,18 +1476,18 @@
         <v>6</v>
       </c>
       <c r="C39" s="6">
-        <v>44824.431944444441</v>
+        <v>44791.406944444447</v>
       </c>
       <c r="D39" s="10">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="E39" s="10">
         <f>$D39-'well info'!$C$5</f>
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F39" s="10">
         <f>'well info'!$E$5-$E39</f>
-        <v>18.899999999999999</v>
+        <v>18.869999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1495,18 +1498,18 @@
         <v>6</v>
       </c>
       <c r="C40" s="6">
-        <v>44886.618055555555</v>
+        <v>44813.447916666664</v>
       </c>
       <c r="D40" s="10">
-        <v>2.23</v>
+        <v>2.89</v>
       </c>
       <c r="E40" s="10">
         <f>$D40-'well info'!$C$5</f>
-        <v>1.5499999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="F40" s="10">
         <f>'well info'!$E$5-$E40</f>
-        <v>19.349999999999998</v>
+        <v>18.689999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1517,18 +1520,18 @@
         <v>6</v>
       </c>
       <c r="C41" s="6">
-        <v>44894.625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D41" s="10">
-        <v>1.81</v>
+        <v>2.77</v>
       </c>
       <c r="E41" s="10">
         <f>$D41-'well info'!$C$5</f>
-        <v>1.1299999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="F41" s="10">
         <f>'well info'!$E$5-$E41</f>
-        <v>19.77</v>
+        <v>18.809999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1539,18 +1542,18 @@
         <v>6</v>
       </c>
       <c r="C42" s="6">
-        <v>44915.416666666664</v>
+        <v>44824.431944444441</v>
       </c>
       <c r="D42" s="10">
-        <v>2.11</v>
+        <v>2.68</v>
       </c>
       <c r="E42" s="10">
         <f>$D42-'well info'!$C$5</f>
-        <v>1.4299999999999997</v>
+        <v>2</v>
       </c>
       <c r="F42" s="10">
         <f>'well info'!$E$5-$E42</f>
-        <v>19.47</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1561,18 +1564,18 @@
         <v>6</v>
       </c>
       <c r="C43" s="6">
-        <v>44930.597222222219</v>
+        <v>44886.618055555555</v>
       </c>
       <c r="D43" s="10">
-        <v>1.2</v>
+        <v>2.23</v>
       </c>
       <c r="E43" s="10">
         <f>$D43-'well info'!$C$5</f>
-        <v>0.51999999999999991</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="F43" s="10">
         <f>'well info'!$E$5-$E43</f>
-        <v>20.38</v>
+        <v>19.349999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1583,106 +1586,106 @@
         <v>6</v>
       </c>
       <c r="C44" s="6">
-        <v>44956.597222222219</v>
+        <v>44894.625</v>
       </c>
       <c r="D44" s="10">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="E44" s="10">
         <f>$D44-'well info'!$C$5</f>
-        <v>0.88</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F44" s="10">
         <f>'well info'!$E$5-$E44</f>
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44915.416666666664</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="E45" s="10">
+        <f>$D45-'well info'!$C$5</f>
+        <v>1.4299999999999997</v>
+      </c>
+      <c r="F45" s="10">
+        <f>'well info'!$E$5-$E45</f>
+        <v>19.47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="6">
+        <v>44930.597222222219</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E46" s="10">
+        <f>$D46-'well info'!$C$5</f>
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="F46" s="10">
+        <f>'well info'!$E$5-$E46</f>
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="6">
+        <v>44956.597222222219</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="E47" s="10">
+        <f>$D47-'well info'!$C$5</f>
+        <v>0.88</v>
+      </c>
+      <c r="F47" s="10">
+        <f>'well info'!$E$5-$E47</f>
         <v>20.02</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D45" s="10">
-        <v>99</v>
-      </c>
-      <c r="E45" s="10">
-        <f>$D45-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F45" s="10">
-        <f>'well info'!$E$2-$E45</f>
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="6">
-        <v>44791.408333333333</v>
-      </c>
-      <c r="D46" s="10">
-        <v>99</v>
-      </c>
-      <c r="E46" s="10">
-        <f>$D46-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F46" s="10">
-        <f>'well info'!$E$2-$E46</f>
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="6">
-        <v>44813.458333333336</v>
-      </c>
-      <c r="D47" s="10">
-        <v>99</v>
-      </c>
-      <c r="E47" s="10">
-        <f>$D47-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F47" s="10">
-        <f>'well info'!$E$2-$E47</f>
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C48" s="6">
-        <v>44818.645833333336</v>
+        <v>44979.451388888891</v>
       </c>
       <c r="D48" s="10">
-        <v>99</v>
+        <v>1.8</v>
       </c>
       <c r="E48" s="10">
-        <f>$D48-'well info'!$C$6</f>
-        <v>98.3</v>
+        <f>$D48-'well info'!$C$5</f>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F48" s="10">
-        <f>'well info'!$E$2-$E48</f>
-        <v>-77</v>
+        <f>'well info'!$E$5-$E48</f>
+        <v>19.779999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1693,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="6">
-        <v>44824.434027777781</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D49" s="10">
         <v>99</v>
@@ -1711,88 +1714,198 @@
       <c r="A50" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="6">
-        <v>44894.625</v>
-      </c>
-      <c r="D50" s="13">
-        <v>2.65</v>
+        <v>44791.408333333333</v>
+      </c>
+      <c r="D50" s="10">
+        <v>99</v>
       </c>
       <c r="E50" s="10">
-        <f>$D50-'well info'!$C$8</f>
-        <v>2.37</v>
+        <f>$D50-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F50" s="10">
-        <f>'well info'!$E$6-$E50</f>
-        <v>19.93</v>
+        <f>'well info'!$E$2-$E50</f>
+        <v>-77</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="6">
-        <v>44915.416666666664</v>
-      </c>
-      <c r="D51" s="13">
-        <v>2.7</v>
+        <v>44813.458333333336</v>
+      </c>
+      <c r="D51" s="10">
+        <v>99</v>
       </c>
       <c r="E51" s="10">
-        <f>$D51-'well info'!$C$8</f>
-        <v>2.42</v>
+        <f>$D51-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F51" s="10">
-        <f>'well info'!$E$6-$E51</f>
-        <v>19.880000000000003</v>
+        <f>'well info'!$E$2-$E51</f>
+        <v>-77</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="6">
-        <v>44930.597222222219</v>
-      </c>
-      <c r="D52" s="13">
-        <v>1.38</v>
+        <v>44818.645833333336</v>
+      </c>
+      <c r="D52" s="10">
+        <v>99</v>
       </c>
       <c r="E52" s="10">
-        <f>$D52-'well info'!$C$8</f>
-        <v>1.0999999999999999</v>
+        <f>$D52-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F52" s="10">
-        <f>'well info'!$E$6-$E52</f>
-        <v>21.2</v>
+        <f>'well info'!$E$2-$E52</f>
+        <v>-77</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="6">
+        <v>44824.434027777781</v>
+      </c>
+      <c r="D53" s="10">
+        <v>99</v>
+      </c>
+      <c r="E53" s="10">
+        <f>$D53-'well info'!$C$6</f>
+        <v>98.3</v>
+      </c>
+      <c r="F53" s="10">
+        <f>'well info'!$E$2-$E53</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="6">
+        <v>44894.625</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2.65</v>
+      </c>
+      <c r="E54" s="10">
+        <f>$D54-'well info'!$C$8</f>
+        <v>2.37</v>
+      </c>
+      <c r="F54" s="10">
+        <f>'well info'!$E$6-$E54</f>
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>44915.416666666664</v>
+      </c>
+      <c r="D55" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="E55" s="10">
+        <f>$D55-'well info'!$C$8</f>
+        <v>2.42</v>
+      </c>
+      <c r="F55" s="10">
+        <f>'well info'!$E$6-$E55</f>
+        <v>19.880000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="6">
+        <v>44930.597222222219</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1.38</v>
+      </c>
+      <c r="E56" s="10">
+        <f>$D56-'well info'!$C$8</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="F56" s="10">
+        <f>'well info'!$E$6-$E56</f>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="6">
         <v>44956.597222222219</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D57" s="13">
         <v>1.56</v>
       </c>
-      <c r="E53" s="10">
-        <f>$D53-'well info'!$C$8</f>
+      <c r="E57" s="10">
+        <f>$D57-'well info'!$C$8</f>
         <v>1.28</v>
       </c>
-      <c r="F53" s="10">
-        <f>'well info'!$E$6-$E53</f>
+      <c r="F57" s="10">
+        <f>'well info'!$E$6-$E57</f>
         <v>21.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="6">
+        <v>44979.451388888891</v>
+      </c>
+      <c r="D58" s="15">
+        <v>2.06</v>
+      </c>
+      <c r="E58" s="10">
+        <f>$D58-'well info'!$C$8</f>
+        <v>1.78</v>
+      </c>
+      <c r="F58" s="10">
+        <f>'well info'!$E$6-$E58</f>
+        <v>20.52</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991AB0F9-D6EE-4CFF-8F60-9EA2BA321B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9822D6-22AD-46B4-8A1D-48B3C40F2FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>DOV</t>
   </si>
   <si>
-    <t>Measured</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>New e)</t>
+  </si>
+  <si>
+    <t>RTK_mTAW</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,9 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:F58"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +670,7 @@
       </c>
       <c r="F2" s="10">
         <f>'well info'!$E$2-$E2</f>
-        <v>19.71</v>
+        <v>19.833600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -695,7 +692,7 @@
       </c>
       <c r="F3" s="10">
         <f>'well info'!$E$2-$E3</f>
-        <v>19.7</v>
+        <v>19.823599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -717,7 +714,7 @@
       </c>
       <c r="F4" s="10">
         <f>'well info'!$E$2-$E4</f>
-        <v>19.62</v>
+        <v>19.743600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -739,7 +736,7 @@
       </c>
       <c r="F5" s="10">
         <f>'well info'!$E$2-$E5</f>
-        <v>19.650000000000002</v>
+        <v>19.773600000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -761,7 +758,7 @@
       </c>
       <c r="F6" s="10">
         <f>'well info'!$E$2-$E6</f>
-        <v>19.71</v>
+        <v>19.833600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -783,7 +780,7 @@
       </c>
       <c r="F7" s="10">
         <f>'well info'!$E$2-$E7</f>
-        <v>19.84</v>
+        <v>19.9636</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -805,7 +802,7 @@
       </c>
       <c r="F8" s="10">
         <f>'well info'!$E$2-$E8</f>
-        <v>20.100000000000001</v>
+        <v>20.223600000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -827,7 +824,7 @@
       </c>
       <c r="F9" s="10">
         <f>'well info'!$E$2-$E9</f>
-        <v>20.36</v>
+        <v>20.483599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -849,7 +846,7 @@
       </c>
       <c r="F10" s="10">
         <f>'well info'!$E$2-$E10</f>
-        <v>20.170000000000002</v>
+        <v>20.293600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -871,7 +868,7 @@
       </c>
       <c r="F11" s="10">
         <f>'well info'!$E$2-$E11</f>
-        <v>20.69</v>
+        <v>20.813600000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -893,7 +890,7 @@
       </c>
       <c r="F12" s="10">
         <f>'well info'!$E$2-$E12</f>
-        <v>20.490000000000002</v>
+        <v>20.613600000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -915,7 +912,7 @@
       </c>
       <c r="F13" s="10">
         <f>'well info'!$E$2-$E13</f>
-        <v>20.37</v>
+        <v>20.493600000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -937,7 +934,7 @@
       </c>
       <c r="F14" s="10">
         <f>'well info'!$E$3-$E14</f>
-        <v>18.829999999999998</v>
+        <v>18.895599999999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -959,7 +956,7 @@
       </c>
       <c r="F15" s="10">
         <f>'well info'!$E$3-$E15</f>
-        <v>18.88</v>
+        <v>18.945599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -981,7 +978,7 @@
       </c>
       <c r="F16" s="10">
         <f>'well info'!$E$3-$E16</f>
-        <v>18.829999999999998</v>
+        <v>18.895599999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1003,7 +1000,7 @@
       </c>
       <c r="F17" s="10">
         <f>'well info'!$E$3-$E17</f>
-        <v>18.850000000000001</v>
+        <v>18.915600000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1025,7 +1022,7 @@
       </c>
       <c r="F18" s="10">
         <f>'well info'!$E$3-$E18</f>
-        <v>18.93</v>
+        <v>18.9956</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1047,7 +1044,7 @@
       </c>
       <c r="F19" s="10">
         <f>'well info'!$E$3-$E19</f>
-        <v>19.04</v>
+        <v>19.105599999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1069,7 +1066,7 @@
       </c>
       <c r="F20" s="10">
         <f>'well info'!$E$3-$E20</f>
-        <v>19.25</v>
+        <v>19.3156</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1091,7 +1088,7 @@
       </c>
       <c r="F21" s="10">
         <f>'well info'!$E$3-$E21</f>
-        <v>19.53</v>
+        <v>19.595600000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1113,7 +1110,7 @@
       </c>
       <c r="F22" s="10">
         <f>'well info'!$E$3-$E22</f>
-        <v>19.329999999999998</v>
+        <v>19.395599999999998</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1135,7 +1132,7 @@
       </c>
       <c r="F23" s="10">
         <f>'well info'!$E$3-$E23</f>
-        <v>19.95</v>
+        <v>20.015599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1157,7 +1154,7 @@
       </c>
       <c r="F24" s="10">
         <f>'well info'!$E$3-$E24</f>
-        <v>19.73</v>
+        <v>19.7956</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1179,7 +1176,7 @@
       </c>
       <c r="F25" s="10">
         <f>'well info'!$E$3-$E25</f>
-        <v>19.579999999999998</v>
+        <v>19.645599999999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1201,7 +1198,7 @@
       </c>
       <c r="F26" s="10">
         <f>'well info'!$E$4-$E26</f>
-        <v>18.18</v>
+        <v>18.3416</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1223,7 +1220,7 @@
       </c>
       <c r="F27" s="10">
         <f>'well info'!$E$4-$E27</f>
-        <v>18.39</v>
+        <v>18.551600000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1245,7 +1242,7 @@
       </c>
       <c r="F28" s="10">
         <f>'well info'!$E$4-$E28</f>
-        <v>18.39</v>
+        <v>18.551600000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1267,7 +1264,7 @@
       </c>
       <c r="F29" s="10">
         <f>'well info'!$E$4-$E29</f>
-        <v>18.41</v>
+        <v>18.5716</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1289,7 +1286,7 @@
       </c>
       <c r="F30" s="10">
         <f>'well info'!$E$4-$E30</f>
-        <v>18.45</v>
+        <v>18.611599999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1311,7 +1308,7 @@
       </c>
       <c r="F31" s="10">
         <f>'well info'!$E$4-$E31</f>
-        <v>18.57</v>
+        <v>18.7316</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1333,7 +1330,7 @@
       </c>
       <c r="F32" s="10">
         <f>'well info'!$E$4-$E32</f>
-        <v>18.899999999999999</v>
+        <v>19.061599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1355,7 +1352,7 @@
       </c>
       <c r="F33" s="10">
         <f>'well info'!$E$4-$E33</f>
-        <v>19.079999999999998</v>
+        <v>19.241599999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1377,7 +1374,7 @@
       </c>
       <c r="F34" s="10">
         <f>'well info'!$E$4-$E34</f>
-        <v>18.96</v>
+        <v>19.121600000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1399,7 +1396,7 @@
       </c>
       <c r="F35" s="10">
         <f>'well info'!$E$4-$E35</f>
-        <v>19.25</v>
+        <v>19.4116</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1421,7 +1418,7 @@
       </c>
       <c r="F36" s="10">
         <f>'well info'!$E$4-$E36</f>
-        <v>19.13</v>
+        <v>19.291599999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1443,7 +1440,7 @@
       </c>
       <c r="F37" s="10">
         <f>'well info'!$E$4-$E37</f>
-        <v>19.059999999999999</v>
+        <v>19.221599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1465,7 +1462,7 @@
       </c>
       <c r="F38" s="10">
         <f>'well info'!$E$5-$E38</f>
-        <v>18.75</v>
+        <v>19.052600000000002</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1487,7 +1484,7 @@
       </c>
       <c r="F39" s="10">
         <f>'well info'!$E$5-$E39</f>
-        <v>18.869999999999997</v>
+        <v>19.172599999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1509,7 +1506,7 @@
       </c>
       <c r="F40" s="10">
         <f>'well info'!$E$5-$E40</f>
-        <v>18.689999999999998</v>
+        <v>18.992599999999999</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1531,7 +1528,7 @@
       </c>
       <c r="F41" s="10">
         <f>'well info'!$E$5-$E41</f>
-        <v>18.809999999999999</v>
+        <v>19.1126</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1553,7 +1550,7 @@
       </c>
       <c r="F42" s="10">
         <f>'well info'!$E$5-$E42</f>
-        <v>18.899999999999999</v>
+        <v>19.2026</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1575,7 +1572,7 @@
       </c>
       <c r="F43" s="10">
         <f>'well info'!$E$5-$E43</f>
-        <v>19.349999999999998</v>
+        <v>19.6526</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1597,7 +1594,7 @@
       </c>
       <c r="F44" s="10">
         <f>'well info'!$E$5-$E44</f>
-        <v>19.77</v>
+        <v>20.072600000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1619,7 +1616,7 @@
       </c>
       <c r="F45" s="10">
         <f>'well info'!$E$5-$E45</f>
-        <v>19.47</v>
+        <v>19.772600000000001</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1641,7 +1638,7 @@
       </c>
       <c r="F46" s="10">
         <f>'well info'!$E$5-$E46</f>
-        <v>20.38</v>
+        <v>20.682600000000001</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1663,7 +1660,7 @@
       </c>
       <c r="F47" s="10">
         <f>'well info'!$E$5-$E47</f>
-        <v>20.02</v>
+        <v>20.322600000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1685,7 +1682,7 @@
       </c>
       <c r="F48" s="10">
         <f>'well info'!$E$5-$E48</f>
-        <v>19.779999999999998</v>
+        <v>20.082599999999999</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1707,7 +1704,7 @@
       </c>
       <c r="F49" s="10">
         <f>'well info'!$E$2-$E49</f>
-        <v>-77</v>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1729,7 +1726,7 @@
       </c>
       <c r="F50" s="10">
         <f>'well info'!$E$2-$E50</f>
-        <v>-77</v>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1751,7 +1748,7 @@
       </c>
       <c r="F51" s="10">
         <f>'well info'!$E$2-$E51</f>
-        <v>-77</v>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1773,7 +1770,7 @@
       </c>
       <c r="F52" s="10">
         <f>'well info'!$E$2-$E52</f>
-        <v>-77</v>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1795,7 +1792,7 @@
       </c>
       <c r="F53" s="10">
         <f>'well info'!$E$2-$E53</f>
-        <v>-77</v>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1817,7 +1814,7 @@
       </c>
       <c r="F54" s="10">
         <f>'well info'!$E$6-$E54</f>
-        <v>19.93</v>
+        <v>19.784599999999998</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1839,7 +1836,7 @@
       </c>
       <c r="F55" s="10">
         <f>'well info'!$E$6-$E55</f>
-        <v>19.880000000000003</v>
+        <v>19.7346</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1861,7 +1858,7 @@
       </c>
       <c r="F56" s="10">
         <f>'well info'!$E$6-$E56</f>
-        <v>21.2</v>
+        <v>21.054599999999997</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1883,7 +1880,7 @@
       </c>
       <c r="F57" s="10">
         <f>'well info'!$E$6-$E57</f>
-        <v>21.02</v>
+        <v>20.874599999999997</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1896,7 +1893,7 @@
       <c r="C58" s="6">
         <v>44979.451388888891</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="13">
         <v>2.06</v>
       </c>
       <c r="E58" s="10">
@@ -1905,7 +1902,7 @@
       </c>
       <c r="F58" s="10">
         <f>'well info'!$E$6-$E58</f>
-        <v>20.52</v>
+        <v>20.374599999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1916,32 +1913,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F185C5D2-7367-4A44-BAB5-F92E6E50077F}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1955,17 +1953,13 @@
         <v>10</v>
       </c>
       <c r="E2">
+        <v>21.4236</v>
+      </c>
+      <c r="F2">
         <v>21.3</v>
       </c>
-      <c r="F2">
-        <f>E2+C2</f>
-        <v>21.86</v>
-      </c>
-      <c r="G2">
-        <v>20.574000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1979,17 +1973,13 @@
         <v>10</v>
       </c>
       <c r="E3">
+        <v>20.5656</v>
+      </c>
+      <c r="F3">
         <v>20.5</v>
       </c>
-      <c r="F3">
-        <f>E3+C3</f>
-        <v>20.93</v>
-      </c>
-      <c r="G3">
-        <v>20.741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2003,17 +1993,13 @@
         <v>10</v>
       </c>
       <c r="E4">
+        <v>19.861599999999999</v>
+      </c>
+      <c r="F4">
         <v>19.7</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4" si="0">E4+C4</f>
-        <v>20.329999999999998</v>
-      </c>
-      <c r="G4">
-        <v>19.902000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2027,17 +2013,13 @@
         <v>10</v>
       </c>
       <c r="E5">
+        <v>21.2026</v>
+      </c>
+      <c r="F5">
         <v>20.9</v>
       </c>
-      <c r="F5">
-        <f>E5+C5</f>
-        <v>21.58</v>
-      </c>
-      <c r="G5">
-        <v>20.338999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2051,19 +2033,15 @@
         <v>10</v>
       </c>
       <c r="E6">
+        <v>22.154599999999999</v>
+      </c>
+      <c r="F6">
         <v>22.3</v>
       </c>
-      <c r="F6">
-        <f>E6+C6</f>
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>21.113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>0.28000000000000003</v>
@@ -2093,7 +2071,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -2125,7 +2103,7 @@
       </c>
       <c r="E2" s="10">
         <f>$C2-'well info'!$F$2</f>
-        <v>-21.86</v>
+        <v>-21.3</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -2145,7 +2123,7 @@
       </c>
       <c r="E3" s="10">
         <f>$C3-'well info'!$F$2</f>
-        <v>-21.71</v>
+        <v>-21.150000000000002</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -2163,7 +2141,7 @@
       </c>
       <c r="E4" s="10">
         <f>$C4-'well info'!$F$2</f>
-        <v>-21.86</v>
+        <v>-21.3</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2181,7 +2159,7 @@
       </c>
       <c r="E5" s="10">
         <f>$C5-'well info'!$F$2</f>
-        <v>-21.86</v>
+        <v>-21.3</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -2199,7 +2177,7 @@
       </c>
       <c r="E6" s="10">
         <f>$C6-'well info'!$F$2</f>
-        <v>-21.86</v>
+        <v>-21.3</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -2208,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="10">
         <v>0.7</v>
@@ -2219,7 +2197,7 @@
       </c>
       <c r="E7" s="10">
         <f>$C7-'well info'!$F$2</f>
-        <v>-21.16</v>
+        <v>-20.6</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -2235,7 +2213,7 @@
       </c>
       <c r="E8" s="10">
         <f>$C8-'well info'!$F$2</f>
-        <v>-21.86</v>
+        <v>-21.3</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -2251,7 +2229,7 @@
       </c>
       <c r="E9" s="10">
         <f>$C9-'well info'!$F$2</f>
-        <v>-21.86</v>
+        <v>-21.3</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>2</v>
@@ -2269,7 +2247,7 @@
       </c>
       <c r="E10" s="10">
         <f>$C10-'well info'!$F$2</f>
-        <v>-21.86</v>
+        <v>-21.3</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>2</v>
@@ -2287,7 +2265,7 @@
       </c>
       <c r="E11" s="10">
         <f>$C11-'well info'!$F$2</f>
-        <v>-21.86</v>
+        <v>-21.3</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>2</v>
@@ -2307,7 +2285,7 @@
       </c>
       <c r="E12" s="10">
         <f>$C12-'well info'!$F$6</f>
-        <v>-23</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -2326,7 +2304,7 @@
       </c>
       <c r="E13" s="10">
         <f>$C13-'well info'!$F$6</f>
-        <v>-22.9</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -2343,7 +2321,7 @@
       </c>
       <c r="E14" s="10">
         <f>$C14-'well info'!$F$6</f>
-        <v>-23</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -2360,7 +2338,7 @@
       </c>
       <c r="E15" s="10">
         <f>$C15-'well info'!$F$6</f>
-        <v>-23</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -2377,7 +2355,7 @@
       </c>
       <c r="E16" s="10">
         <f>$C16-'well info'!$F$6</f>
-        <v>-23</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2385,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="10">
         <v>0.25</v>
@@ -2396,7 +2374,7 @@
       </c>
       <c r="E17" s="10">
         <f>$C17-'well info'!$F$6</f>
-        <v>-22.75</v>
+        <v>-22.05</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2411,7 +2389,7 @@
       </c>
       <c r="E18" s="10">
         <f>$C18-'well info'!$F$6</f>
-        <v>-23</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2426,7 +2404,7 @@
       </c>
       <c r="E19" s="10">
         <f>$C19-'well info'!$F$6</f>
-        <v>-23</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2441,7 +2419,7 @@
       </c>
       <c r="E20" s="10">
         <f>$C20-'well info'!$F$6</f>
-        <v>-23</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2456,7 +2434,7 @@
       </c>
       <c r="E21" s="10">
         <f>$C21-'well info'!$F$6</f>
-        <v>-23</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2473,7 +2451,7 @@
       </c>
       <c r="E22" s="10">
         <f>$C22-'well info'!$F$4</f>
-        <v>-20.329999999999998</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2490,7 +2468,7 @@
       </c>
       <c r="E23" s="10">
         <f>$C23-'well info'!$F$4</f>
-        <v>-20.329999999999998</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2507,7 +2485,7 @@
       </c>
       <c r="E24" s="10">
         <f>$C24-'well info'!$F$4</f>
-        <v>-20.329999999999998</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2524,7 +2502,7 @@
       </c>
       <c r="E25" s="10">
         <f>$C25-'well info'!$F$4</f>
-        <v>-20.329999999999998</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2541,7 +2519,7 @@
       </c>
       <c r="E26" s="10">
         <f>$C26-'well info'!$F$4</f>
-        <v>-20.329999999999998</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2549,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="10">
         <v>0.85</v>
@@ -2560,7 +2538,7 @@
       </c>
       <c r="E27" s="10">
         <f>$C27-'well info'!$F$4</f>
-        <v>-19.479999999999997</v>
+        <v>-18.849999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2575,7 +2553,7 @@
       </c>
       <c r="E28" s="10">
         <f>$C28-'well info'!$F$4</f>
-        <v>-20.329999999999998</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2590,7 +2568,7 @@
       </c>
       <c r="E29" s="10">
         <f>$C29-'well info'!$F$4</f>
-        <v>-20.329999999999998</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2605,7 +2583,7 @@
       </c>
       <c r="E30" s="10">
         <f>$C30-'well info'!$F$4</f>
-        <v>-20.329999999999998</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2620,7 +2598,7 @@
       </c>
       <c r="E31" s="10">
         <f>$C31-'well info'!$F$4</f>
-        <v>-20.329999999999998</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2637,7 +2615,7 @@
       </c>
       <c r="E32" s="10">
         <f>$C32-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2654,7 +2632,7 @@
       </c>
       <c r="E33" s="10">
         <f>$C33-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2671,7 +2649,7 @@
       </c>
       <c r="E34" s="10">
         <f>$C34-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2688,7 +2666,7 @@
       </c>
       <c r="E35" s="10">
         <f>$C35-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2705,7 +2683,7 @@
       </c>
       <c r="E36" s="10">
         <f>$C36-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2713,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="10">
         <v>0.2</v>
@@ -2724,7 +2702,7 @@
       </c>
       <c r="E37" s="10">
         <f>$C37-'well info'!$F$3</f>
-        <v>-20.73</v>
+        <v>-20.3</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2739,7 +2717,7 @@
       </c>
       <c r="E38" s="10">
         <f>$C38-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2754,7 +2732,7 @@
       </c>
       <c r="E39" s="10">
         <f>$C39-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2769,7 +2747,7 @@
       </c>
       <c r="E40" s="10">
         <f>$C40-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2784,7 +2762,7 @@
       </c>
       <c r="E41" s="10">
         <f>$C41-'well info'!$F$3</f>
-        <v>-20.93</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.3">

--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9822D6-22AD-46B4-8A1D-48B3C40F2FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E762E382-8CA9-4C49-8846-438014E8BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,6 +301,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,26 +921,26 @@
         <v>20.493600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C14" s="6">
-        <v>44775.743055555555</v>
+        <v>45007.5625</v>
       </c>
       <c r="D14" s="10">
-        <v>2.1</v>
+        <v>1.34</v>
       </c>
       <c r="E14" s="10">
-        <f>$D14-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <f>$D14-'well info'!$C$2</f>
+        <v>0.78</v>
       </c>
       <c r="F14" s="10">
-        <f>'well info'!$E$3-$E14</f>
-        <v>18.895599999999998</v>
+        <f>'well info'!$E$2-$E14</f>
+        <v>20.643599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -945,18 +951,18 @@
         <v>9</v>
       </c>
       <c r="C15" s="6">
-        <v>44791.402777777781</v>
+        <v>44775.743055555555</v>
       </c>
       <c r="D15" s="10">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E15" s="10">
         <f>$D15-'well info'!$C$3</f>
-        <v>1.6199999999999999</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F15" s="10">
         <f>'well info'!$E$3-$E15</f>
-        <v>18.945599999999999</v>
+        <v>18.895599999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -967,18 +973,18 @@
         <v>9</v>
       </c>
       <c r="C16" s="6">
-        <v>44813.4375</v>
+        <v>44791.402777777781</v>
       </c>
       <c r="D16" s="10">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E16" s="10">
         <f>$D16-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="F16" s="10">
         <f>'well info'!$E$3-$E16</f>
-        <v>18.895599999999998</v>
+        <v>18.945599999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -989,18 +995,18 @@
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>44818.625</v>
+        <v>44813.4375</v>
       </c>
       <c r="D17" s="10">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E17" s="10">
         <f>$D17-'well info'!$C$3</f>
-        <v>1.6500000000000001</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F17" s="10">
         <f>'well info'!$E$3-$E17</f>
-        <v>18.915600000000001</v>
+        <v>18.895599999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1011,18 +1017,18 @@
         <v>9</v>
       </c>
       <c r="C18" s="6">
-        <v>44824.427083333336</v>
+        <v>44818.625</v>
       </c>
       <c r="D18" s="10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E18" s="10">
         <f>$D18-'well info'!$C$3</f>
-        <v>1.57</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="F18" s="10">
         <f>'well info'!$E$3-$E18</f>
-        <v>18.9956</v>
+        <v>18.915600000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1033,18 +1039,18 @@
         <v>9</v>
       </c>
       <c r="C19" s="6">
-        <v>44851.65625</v>
+        <v>44824.427083333336</v>
       </c>
       <c r="D19" s="10">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="E19" s="10">
         <f>$D19-'well info'!$C$3</f>
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="F19" s="10">
         <f>'well info'!$E$3-$E19</f>
-        <v>19.105599999999999</v>
+        <v>18.9956</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1055,18 +1061,18 @@
         <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>44886.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D20" s="10">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="E20" s="10">
         <f>$D20-'well info'!$C$3</f>
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="F20" s="10">
         <f>'well info'!$E$3-$E20</f>
-        <v>19.3156</v>
+        <v>19.105599999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1077,18 +1083,18 @@
         <v>9</v>
       </c>
       <c r="C21" s="6">
-        <v>44894.625</v>
+        <v>44886.625</v>
       </c>
       <c r="D21" s="10">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="E21" s="10">
         <f>$D21-'well info'!$C$3</f>
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="F21" s="10">
         <f>'well info'!$E$3-$E21</f>
-        <v>19.595600000000001</v>
+        <v>19.3156</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1099,18 +1105,18 @@
         <v>9</v>
       </c>
       <c r="C22" s="6">
-        <v>44915.416666666664</v>
+        <v>44894.625</v>
       </c>
       <c r="D22" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E22" s="10">
         <f>$D22-'well info'!$C$3</f>
-        <v>1.1700000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="F22" s="10">
         <f>'well info'!$E$3-$E22</f>
-        <v>19.395599999999998</v>
+        <v>19.595600000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1121,18 +1127,18 @@
         <v>9</v>
       </c>
       <c r="C23" s="6">
-        <v>44930.597222222219</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D23" s="10">
-        <v>0.98</v>
+        <v>1.6</v>
       </c>
       <c r="E23" s="10">
         <f>$D23-'well info'!$C$3</f>
-        <v>0.55000000000000004</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="F23" s="10">
         <f>'well info'!$E$3-$E23</f>
-        <v>20.015599999999999</v>
+        <v>19.395599999999998</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1143,18 +1149,18 @@
         <v>9</v>
       </c>
       <c r="C24" s="6">
-        <v>44956.597222222219</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D24" s="10">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="E24" s="10">
         <f>$D24-'well info'!$C$3</f>
-        <v>0.77</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F24" s="10">
         <f>'well info'!$E$3-$E24</f>
-        <v>19.7956</v>
+        <v>20.015599999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1165,62 +1171,62 @@
         <v>9</v>
       </c>
       <c r="C25" s="6">
-        <v>44979.451388888891</v>
+        <v>44956.597222222219</v>
       </c>
       <c r="D25" s="10">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="E25" s="10">
         <f>$D25-'well info'!$C$3</f>
-        <v>0.92000000000000015</v>
+        <v>0.77</v>
       </c>
       <c r="F25" s="10">
         <f>'well info'!$E$3-$E25</f>
-        <v>19.645599999999998</v>
+        <v>19.7956</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6">
-        <v>44775.510416666664</v>
+        <v>44979.451388888891</v>
       </c>
       <c r="D26" s="10">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="E26" s="10">
-        <f>$D26-'well info'!$C$4</f>
-        <v>1.52</v>
+        <f>$D26-'well info'!$C$3</f>
+        <v>0.92000000000000015</v>
       </c>
       <c r="F26" s="10">
-        <f>'well info'!$E$4-$E26</f>
-        <v>18.3416</v>
+        <f>'well info'!$E$3-$E26</f>
+        <v>19.645599999999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6">
-        <v>44791.404166666667</v>
+        <v>45007.5625</v>
       </c>
       <c r="D27" s="10">
-        <v>1.94</v>
+        <v>1.2</v>
       </c>
       <c r="E27" s="10">
-        <f>$D27-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D27-'well info'!$C$3</f>
+        <v>0.77</v>
       </c>
       <c r="F27" s="10">
-        <f>'well info'!$E$4-$E27</f>
-        <v>18.551600000000001</v>
+        <f>'well info'!$E$3-$E27</f>
+        <v>19.7956</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1231,18 +1237,18 @@
         <v>7</v>
       </c>
       <c r="C28" s="6">
-        <v>44813.44027777778</v>
+        <v>44775.510416666664</v>
       </c>
       <c r="D28" s="10">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="E28" s="10">
-        <f>D28-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D28-'well info'!$C$4</f>
+        <v>1.52</v>
       </c>
       <c r="F28" s="10">
         <f>'well info'!$E$4-$E28</f>
-        <v>18.551600000000001</v>
+        <v>18.3416</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1253,18 +1259,18 @@
         <v>7</v>
       </c>
       <c r="C29" s="6">
-        <v>44818.607638888891</v>
+        <v>44791.404166666667</v>
       </c>
       <c r="D29" s="10">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="E29" s="10">
-        <f>D29-'well info'!$C$4</f>
-        <v>1.29</v>
+        <f>$D29-'well info'!$C$4</f>
+        <v>1.31</v>
       </c>
       <c r="F29" s="10">
         <f>'well info'!$E$4-$E29</f>
-        <v>18.5716</v>
+        <v>18.551600000000001</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1275,18 +1281,18 @@
         <v>7</v>
       </c>
       <c r="C30" s="6">
-        <v>44824.430555555555</v>
+        <v>44813.44027777778</v>
       </c>
       <c r="D30" s="10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="E30" s="10">
         <f>D30-'well info'!$C$4</f>
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F30" s="10">
         <f>'well info'!$E$4-$E30</f>
-        <v>18.611599999999999</v>
+        <v>18.551600000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1297,18 +1303,18 @@
         <v>7</v>
       </c>
       <c r="C31" s="6">
-        <v>44851.65625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D31" s="10">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="E31" s="10">
         <f>D31-'well info'!$C$4</f>
-        <v>1.1299999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="F31" s="10">
         <f>'well info'!$E$4-$E31</f>
-        <v>18.7316</v>
+        <v>18.5716</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1319,18 +1325,18 @@
         <v>7</v>
       </c>
       <c r="C32" s="6">
-        <v>44886.625</v>
+        <v>44824.430555555555</v>
       </c>
       <c r="D32" s="10">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="E32" s="10">
         <f>D32-'well info'!$C$4</f>
-        <v>0.79999999999999993</v>
+        <v>1.25</v>
       </c>
       <c r="F32" s="10">
         <f>'well info'!$E$4-$E32</f>
-        <v>19.061599999999999</v>
+        <v>18.611599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1341,18 +1347,18 @@
         <v>7</v>
       </c>
       <c r="C33" s="6">
-        <v>44894.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D33" s="10">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="E33" s="10">
         <f>D33-'well info'!$C$4</f>
-        <v>0.62</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F33" s="10">
         <f>'well info'!$E$4-$E33</f>
-        <v>19.241599999999998</v>
+        <v>18.7316</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1363,18 +1369,18 @@
         <v>7</v>
       </c>
       <c r="C34" s="6">
-        <v>44915.416666666664</v>
+        <v>44886.625</v>
       </c>
       <c r="D34" s="10">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="E34" s="10">
         <f>D34-'well info'!$C$4</f>
-        <v>0.7400000000000001</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="F34" s="10">
         <f>'well info'!$E$4-$E34</f>
-        <v>19.121600000000001</v>
+        <v>19.061599999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1385,18 +1391,18 @@
         <v>7</v>
       </c>
       <c r="C35" s="6">
-        <v>44930.597222222219</v>
+        <v>44894.625</v>
       </c>
       <c r="D35" s="10">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="E35" s="10">
         <f>D35-'well info'!$C$4</f>
-        <v>0.45000000000000007</v>
+        <v>0.62</v>
       </c>
       <c r="F35" s="10">
         <f>'well info'!$E$4-$E35</f>
-        <v>19.4116</v>
+        <v>19.241599999999998</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1407,18 +1413,18 @@
         <v>7</v>
       </c>
       <c r="C36" s="6">
-        <v>44956.597222222219</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D36" s="10">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="E36" s="10">
         <f>D36-'well info'!$C$4</f>
-        <v>0.56999999999999995</v>
+        <v>0.7400000000000001</v>
       </c>
       <c r="F36" s="10">
         <f>'well info'!$E$4-$E36</f>
-        <v>19.291599999999999</v>
+        <v>19.121600000000001</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1429,84 +1435,84 @@
         <v>7</v>
       </c>
       <c r="C37" s="6">
-        <v>44979.451388888891</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D37" s="10">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="E37" s="10">
         <f>D37-'well info'!$C$4</f>
-        <v>0.64</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="F37" s="10">
         <f>'well info'!$E$4-$E37</f>
+        <v>19.4116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="6">
+        <v>44956.597222222219</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="10">
+        <f>D38-'well info'!$C$4</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F38" s="10">
+        <f>'well info'!$E$4-$E38</f>
+        <v>19.291599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6">
+        <v>44979.451388888891</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1.27</v>
+      </c>
+      <c r="E39" s="10">
+        <f>D39-'well info'!$C$4</f>
+        <v>0.64</v>
+      </c>
+      <c r="F39" s="10">
+        <f>'well info'!$E$4-$E39</f>
         <v>19.221599999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D38" s="10">
-        <v>2.83</v>
-      </c>
-      <c r="E38" s="10">
-        <f>$D38-'well info'!$C$5</f>
-        <v>2.15</v>
-      </c>
-      <c r="F38" s="10">
-        <f>'well info'!$E$5-$E38</f>
-        <v>19.052600000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="6">
-        <v>44791.406944444447</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2.71</v>
-      </c>
-      <c r="E39" s="10">
-        <f>$D39-'well info'!$C$5</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F39" s="10">
-        <f>'well info'!$E$5-$E39</f>
-        <v>19.172599999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C40" s="6">
-        <v>44813.447916666664</v>
+        <v>45007.5625</v>
       </c>
       <c r="D40" s="10">
-        <v>2.89</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E40" s="10">
-        <f>$D40-'well info'!$C$5</f>
-        <v>2.21</v>
+        <f>D40-'well info'!$C$4</f>
+        <v>0.52999999999999992</v>
       </c>
       <c r="F40" s="10">
-        <f>'well info'!$E$5-$E40</f>
-        <v>18.992599999999999</v>
+        <f>'well info'!$E$4-$E40</f>
+        <v>19.331599999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1517,18 +1523,18 @@
         <v>6</v>
       </c>
       <c r="C41" s="6">
-        <v>44818.607638888891</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D41" s="10">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="E41" s="10">
         <f>$D41-'well info'!$C$5</f>
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="F41" s="10">
         <f>'well info'!$E$5-$E41</f>
-        <v>19.1126</v>
+        <v>19.052600000000002</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1539,18 +1545,18 @@
         <v>6</v>
       </c>
       <c r="C42" s="6">
-        <v>44824.431944444441</v>
+        <v>44791.406944444447</v>
       </c>
       <c r="D42" s="10">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="E42" s="10">
         <f>$D42-'well info'!$C$5</f>
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F42" s="10">
         <f>'well info'!$E$5-$E42</f>
-        <v>19.2026</v>
+        <v>19.172599999999999</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1561,18 +1567,18 @@
         <v>6</v>
       </c>
       <c r="C43" s="6">
-        <v>44886.618055555555</v>
+        <v>44813.447916666664</v>
       </c>
       <c r="D43" s="10">
-        <v>2.23</v>
+        <v>2.89</v>
       </c>
       <c r="E43" s="10">
         <f>$D43-'well info'!$C$5</f>
-        <v>1.5499999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="F43" s="10">
         <f>'well info'!$E$5-$E43</f>
-        <v>19.6526</v>
+        <v>18.992599999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1583,18 +1589,18 @@
         <v>6</v>
       </c>
       <c r="C44" s="6">
-        <v>44894.625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D44" s="10">
-        <v>1.81</v>
+        <v>2.77</v>
       </c>
       <c r="E44" s="10">
         <f>$D44-'well info'!$C$5</f>
-        <v>1.1299999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="F44" s="10">
         <f>'well info'!$E$5-$E44</f>
-        <v>20.072600000000001</v>
+        <v>19.1126</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1605,18 +1611,18 @@
         <v>6</v>
       </c>
       <c r="C45" s="6">
-        <v>44915.416666666664</v>
+        <v>44824.431944444441</v>
       </c>
       <c r="D45" s="10">
-        <v>2.11</v>
+        <v>2.68</v>
       </c>
       <c r="E45" s="10">
         <f>$D45-'well info'!$C$5</f>
-        <v>1.4299999999999997</v>
+        <v>2</v>
       </c>
       <c r="F45" s="10">
         <f>'well info'!$E$5-$E45</f>
-        <v>19.772600000000001</v>
+        <v>19.2026</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1627,18 +1633,18 @@
         <v>6</v>
       </c>
       <c r="C46" s="6">
-        <v>44930.597222222219</v>
+        <v>44886.618055555555</v>
       </c>
       <c r="D46" s="10">
-        <v>1.2</v>
+        <v>2.23</v>
       </c>
       <c r="E46" s="10">
         <f>$D46-'well info'!$C$5</f>
-        <v>0.51999999999999991</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="F46" s="10">
         <f>'well info'!$E$5-$E46</f>
-        <v>20.682600000000001</v>
+        <v>19.6526</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1649,18 +1655,18 @@
         <v>6</v>
       </c>
       <c r="C47" s="6">
-        <v>44956.597222222219</v>
+        <v>44894.625</v>
       </c>
       <c r="D47" s="10">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="E47" s="10">
         <f>$D47-'well info'!$C$5</f>
-        <v>0.88</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F47" s="10">
         <f>'well info'!$E$5-$E47</f>
-        <v>20.322600000000001</v>
+        <v>20.072600000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1671,106 +1677,106 @@
         <v>6</v>
       </c>
       <c r="C48" s="6">
-        <v>44979.451388888891</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D48" s="10">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="E48" s="10">
         <f>$D48-'well info'!$C$5</f>
-        <v>1.1200000000000001</v>
+        <v>1.4299999999999997</v>
       </c>
       <c r="F48" s="10">
         <f>'well info'!$E$5-$E48</f>
+        <v>19.772600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="6">
+        <v>44930.597222222219</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E49" s="10">
+        <f>$D49-'well info'!$C$5</f>
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="F49" s="10">
+        <f>'well info'!$E$5-$E49</f>
+        <v>20.682600000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="6">
+        <v>44956.597222222219</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="E50" s="10">
+        <f>$D50-'well info'!$C$5</f>
+        <v>0.88</v>
+      </c>
+      <c r="F50" s="10">
+        <f>'well info'!$E$5-$E50</f>
+        <v>20.322600000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="6">
+        <v>44979.451388888891</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="E51" s="10">
+        <f>$D51-'well info'!$C$5</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F51" s="10">
+        <f>'well info'!$E$5-$E51</f>
         <v>20.082599999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D49" s="10">
-        <v>99</v>
-      </c>
-      <c r="E49" s="10">
-        <f>$D49-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F49" s="10">
-        <f>'well info'!$E$2-$E49</f>
-        <v>-76.87639999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="6">
-        <v>44791.408333333333</v>
-      </c>
-      <c r="D50" s="10">
-        <v>99</v>
-      </c>
-      <c r="E50" s="10">
-        <f>$D50-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F50" s="10">
-        <f>'well info'!$E$2-$E50</f>
-        <v>-76.87639999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="6">
-        <v>44813.458333333336</v>
-      </c>
-      <c r="D51" s="10">
-        <v>99</v>
-      </c>
-      <c r="E51" s="10">
-        <f>$D51-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F51" s="10">
-        <f>'well info'!$E$2-$E51</f>
-        <v>-76.87639999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C52" s="6">
-        <v>44818.645833333336</v>
+        <v>45007.5625</v>
       </c>
       <c r="D52" s="10">
-        <v>99</v>
+        <v>1.56</v>
       </c>
       <c r="E52" s="10">
-        <f>$D52-'well info'!$C$6</f>
-        <v>98.3</v>
+        <f>$D52-'well info'!$C$5</f>
+        <v>0.88</v>
       </c>
       <c r="F52" s="10">
-        <f>'well info'!$E$2-$E52</f>
-        <v>-76.87639999999999</v>
+        <f>'well info'!$E$5-$E52</f>
+        <v>20.322600000000001</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1781,7 +1787,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="6">
-        <v>44824.434027777781</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D53" s="10">
         <v>99</v>
@@ -1799,88 +1805,88 @@
       <c r="A54" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="6">
-        <v>44894.625</v>
-      </c>
-      <c r="D54" s="13">
-        <v>2.65</v>
+        <v>44791.408333333333</v>
+      </c>
+      <c r="D54" s="10">
+        <v>99</v>
       </c>
       <c r="E54" s="10">
-        <f>$D54-'well info'!$C$8</f>
-        <v>2.37</v>
+        <f>$D54-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F54" s="10">
-        <f>'well info'!$E$6-$E54</f>
-        <v>19.784599999999998</v>
+        <f>'well info'!$E$2-$E54</f>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="6">
-        <v>44915.416666666664</v>
-      </c>
-      <c r="D55" s="13">
-        <v>2.7</v>
+        <v>44813.458333333336</v>
+      </c>
+      <c r="D55" s="10">
+        <v>99</v>
       </c>
       <c r="E55" s="10">
-        <f>$D55-'well info'!$C$8</f>
-        <v>2.42</v>
+        <f>$D55-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F55" s="10">
-        <f>'well info'!$E$6-$E55</f>
-        <v>19.7346</v>
+        <f>'well info'!$E$2-$E55</f>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="6">
-        <v>44930.597222222219</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1.38</v>
+        <v>44818.645833333336</v>
+      </c>
+      <c r="D56" s="10">
+        <v>99</v>
       </c>
       <c r="E56" s="10">
-        <f>$D56-'well info'!$C$8</f>
-        <v>1.0999999999999999</v>
+        <f>$D56-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F56" s="10">
-        <f>'well info'!$E$6-$E56</f>
-        <v>21.054599999999997</v>
+        <f>'well info'!$E$2-$E56</f>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="6">
-        <v>44956.597222222219</v>
-      </c>
-      <c r="D57" s="13">
-        <v>1.56</v>
+        <v>44824.434027777781</v>
+      </c>
+      <c r="D57" s="10">
+        <v>99</v>
       </c>
       <c r="E57" s="10">
-        <f>$D57-'well info'!$C$8</f>
-        <v>1.28</v>
+        <f>$D57-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F57" s="10">
-        <f>'well info'!$E$6-$E57</f>
-        <v>20.874599999999997</v>
+        <f>'well info'!$E$2-$E57</f>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1891,18 +1897,128 @@
         <v>8</v>
       </c>
       <c r="C58" s="6">
-        <v>44979.451388888891</v>
+        <v>44894.625</v>
       </c>
       <c r="D58" s="13">
-        <v>2.06</v>
+        <v>2.65</v>
       </c>
       <c r="E58" s="10">
         <f>$D58-'well info'!$C$8</f>
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="F58" s="10">
         <f>'well info'!$E$6-$E58</f>
+        <v>19.784599999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="6">
+        <v>44915.416666666664</v>
+      </c>
+      <c r="D59" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="E59" s="10">
+        <f>$D59-'well info'!$C$8</f>
+        <v>2.42</v>
+      </c>
+      <c r="F59" s="10">
+        <f>'well info'!$E$6-$E59</f>
+        <v>19.7346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="6">
+        <v>44930.597222222219</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1.38</v>
+      </c>
+      <c r="E60" s="10">
+        <f>$D60-'well info'!$C$8</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="F60" s="10">
+        <f>'well info'!$E$6-$E60</f>
+        <v>21.054599999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6">
+        <v>44956.597222222219</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="E61" s="10">
+        <f>$D61-'well info'!$C$8</f>
+        <v>1.28</v>
+      </c>
+      <c r="F61" s="10">
+        <f>'well info'!$E$6-$E61</f>
+        <v>20.874599999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="6">
+        <v>44979.451388888891</v>
+      </c>
+      <c r="D62" s="13">
+        <v>2.06</v>
+      </c>
+      <c r="E62" s="10">
+        <f>$D62-'well info'!$C$8</f>
+        <v>1.78</v>
+      </c>
+      <c r="F62" s="10">
+        <f>'well info'!$E$6-$E62</f>
         <v>20.374599999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="6">
+        <v>45007.5625</v>
+      </c>
+      <c r="D63" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="E63" s="10">
+        <f>$D63-'well info'!$C$8</f>
+        <v>1.3699999999999999</v>
+      </c>
+      <c r="F63" s="10">
+        <f>'well info'!$E$6-$E63</f>
+        <v>20.784599999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F185C5D2-7367-4A44-BAB5-F92E6E50077F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/data/raw_data/manual_check_water_depth.xlsx
+++ b/data/raw_data/manual_check_water_depth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\data\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amehmandoostkotlar\OneDrive - ILVO\ILVO_field\Jupyter-scripts\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E762E382-8CA9-4C49-8846-438014E8BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B17EF8F-4E4E-4609-BB54-3F250FA303C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{BF0455CF-DD72-4E4E-81CB-493DB7D8E4C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="44">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -302,15 +302,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -326,7 +320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -622,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165085E-C73E-4745-9CF5-000463140AFD}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:F63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,27 +937,24 @@
         <v>20.643599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="6">
-        <v>44775.743055555555</v>
+        <v>45139.385416666664</v>
       </c>
       <c r="D15" s="10">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="E15" s="10">
-        <f>$D15-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
-      </c>
-      <c r="F15" s="10">
-        <f>'well info'!$E$3-$E15</f>
-        <v>18.895599999999998</v>
-      </c>
+        <f>$D15-'well info'!$C$2</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -973,18 +964,18 @@
         <v>9</v>
       </c>
       <c r="C16" s="6">
-        <v>44791.402777777781</v>
+        <v>44775.743055555555</v>
       </c>
       <c r="D16" s="10">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E16" s="10">
         <f>$D16-'well info'!$C$3</f>
-        <v>1.6199999999999999</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F16" s="10">
         <f>'well info'!$E$3-$E16</f>
-        <v>18.945599999999999</v>
+        <v>18.895599999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -995,18 +986,18 @@
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>44813.4375</v>
+        <v>44791.402777777781</v>
       </c>
       <c r="D17" s="10">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E17" s="10">
         <f>$D17-'well info'!$C$3</f>
-        <v>1.6700000000000002</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="F17" s="10">
         <f>'well info'!$E$3-$E17</f>
-        <v>18.895599999999998</v>
+        <v>18.945599999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1017,18 +1008,18 @@
         <v>9</v>
       </c>
       <c r="C18" s="6">
-        <v>44818.625</v>
+        <v>44813.4375</v>
       </c>
       <c r="D18" s="10">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E18" s="10">
         <f>$D18-'well info'!$C$3</f>
-        <v>1.6500000000000001</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="F18" s="10">
         <f>'well info'!$E$3-$E18</f>
-        <v>18.915600000000001</v>
+        <v>18.895599999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1039,18 +1030,18 @@
         <v>9</v>
       </c>
       <c r="C19" s="6">
-        <v>44824.427083333336</v>
+        <v>44818.625</v>
       </c>
       <c r="D19" s="10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E19" s="10">
         <f>$D19-'well info'!$C$3</f>
-        <v>1.57</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="F19" s="10">
         <f>'well info'!$E$3-$E19</f>
-        <v>18.9956</v>
+        <v>18.915600000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1061,18 +1052,18 @@
         <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>44851.65625</v>
+        <v>44824.427083333336</v>
       </c>
       <c r="D20" s="10">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="E20" s="10">
         <f>$D20-'well info'!$C$3</f>
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="F20" s="10">
         <f>'well info'!$E$3-$E20</f>
-        <v>19.105599999999999</v>
+        <v>18.9956</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1083,18 +1074,18 @@
         <v>9</v>
       </c>
       <c r="C21" s="6">
-        <v>44886.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D21" s="10">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="E21" s="10">
         <f>$D21-'well info'!$C$3</f>
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="F21" s="10">
         <f>'well info'!$E$3-$E21</f>
-        <v>19.3156</v>
+        <v>19.105599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1105,18 +1096,18 @@
         <v>9</v>
       </c>
       <c r="C22" s="6">
-        <v>44894.625</v>
+        <v>44886.625</v>
       </c>
       <c r="D22" s="10">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="E22" s="10">
         <f>$D22-'well info'!$C$3</f>
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="F22" s="10">
         <f>'well info'!$E$3-$E22</f>
-        <v>19.595600000000001</v>
+        <v>19.3156</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1127,18 +1118,18 @@
         <v>9</v>
       </c>
       <c r="C23" s="6">
-        <v>44915.416666666664</v>
+        <v>44894.625</v>
       </c>
       <c r="D23" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E23" s="10">
         <f>$D23-'well info'!$C$3</f>
-        <v>1.1700000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="F23" s="10">
         <f>'well info'!$E$3-$E23</f>
-        <v>19.395599999999998</v>
+        <v>19.595600000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1149,18 +1140,18 @@
         <v>9</v>
       </c>
       <c r="C24" s="6">
-        <v>44930.597222222219</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D24" s="10">
-        <v>0.98</v>
+        <v>1.6</v>
       </c>
       <c r="E24" s="10">
         <f>$D24-'well info'!$C$3</f>
-        <v>0.55000000000000004</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="F24" s="10">
         <f>'well info'!$E$3-$E24</f>
-        <v>20.015599999999999</v>
+        <v>19.395599999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1171,18 +1162,18 @@
         <v>9</v>
       </c>
       <c r="C25" s="6">
-        <v>44956.597222222219</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D25" s="10">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="E25" s="10">
         <f>$D25-'well info'!$C$3</f>
-        <v>0.77</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F25" s="10">
         <f>'well info'!$E$3-$E25</f>
-        <v>19.7956</v>
+        <v>20.015599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1193,18 +1184,18 @@
         <v>9</v>
       </c>
       <c r="C26" s="6">
-        <v>44979.451388888891</v>
+        <v>44956.597222222219</v>
       </c>
       <c r="D26" s="10">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="E26" s="10">
         <f>$D26-'well info'!$C$3</f>
-        <v>0.92000000000000015</v>
+        <v>0.77</v>
       </c>
       <c r="F26" s="10">
         <f>'well info'!$E$3-$E26</f>
-        <v>19.645599999999998</v>
+        <v>19.7956</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1215,62 +1206,62 @@
         <v>9</v>
       </c>
       <c r="C27" s="6">
-        <v>45007.5625</v>
+        <v>44979.451388888891</v>
       </c>
       <c r="D27" s="10">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="E27" s="10">
         <f>$D27-'well info'!$C$3</f>
-        <v>0.77</v>
+        <v>0.92000000000000015</v>
       </c>
       <c r="F27" s="10">
         <f>'well info'!$E$3-$E27</f>
-        <v>19.7956</v>
+        <v>19.645599999999998</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="6">
-        <v>44775.510416666664</v>
+        <v>45007.5625</v>
       </c>
       <c r="D28" s="10">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="E28" s="10">
-        <f>$D28-'well info'!$C$4</f>
-        <v>1.52</v>
+        <f>$D28-'well info'!$C$3</f>
+        <v>0.77</v>
       </c>
       <c r="F28" s="10">
-        <f>'well info'!$E$4-$E28</f>
-        <v>18.3416</v>
+        <f>'well info'!$E$3-$E28</f>
+        <v>19.7956</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="6">
-        <v>44791.404166666667</v>
+        <v>45139.395833333336</v>
       </c>
       <c r="D29" s="10">
-        <v>1.94</v>
+        <v>1.51</v>
       </c>
       <c r="E29" s="10">
-        <f>$D29-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D29-'well info'!$C$3</f>
+        <v>1.08</v>
       </c>
       <c r="F29" s="10">
-        <f>'well info'!$E$4-$E29</f>
-        <v>18.551600000000001</v>
+        <f>'well info'!$E$3-$E29</f>
+        <v>19.485599999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1281,18 +1272,18 @@
         <v>7</v>
       </c>
       <c r="C30" s="6">
-        <v>44813.44027777778</v>
+        <v>44775.510416666664</v>
       </c>
       <c r="D30" s="10">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="E30" s="10">
-        <f>D30-'well info'!$C$4</f>
-        <v>1.31</v>
+        <f>$D30-'well info'!$C$4</f>
+        <v>1.52</v>
       </c>
       <c r="F30" s="10">
         <f>'well info'!$E$4-$E30</f>
-        <v>18.551600000000001</v>
+        <v>18.3416</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1303,18 +1294,18 @@
         <v>7</v>
       </c>
       <c r="C31" s="6">
-        <v>44818.607638888891</v>
+        <v>44791.404166666667</v>
       </c>
       <c r="D31" s="10">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="E31" s="10">
-        <f>D31-'well info'!$C$4</f>
-        <v>1.29</v>
+        <f>$D31-'well info'!$C$4</f>
+        <v>1.31</v>
       </c>
       <c r="F31" s="10">
         <f>'well info'!$E$4-$E31</f>
-        <v>18.5716</v>
+        <v>18.551600000000001</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1325,18 +1316,18 @@
         <v>7</v>
       </c>
       <c r="C32" s="6">
-        <v>44824.430555555555</v>
+        <v>44813.44027777778</v>
       </c>
       <c r="D32" s="10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="E32" s="10">
         <f>D32-'well info'!$C$4</f>
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F32" s="10">
         <f>'well info'!$E$4-$E32</f>
-        <v>18.611599999999999</v>
+        <v>18.551600000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1347,18 +1338,18 @@
         <v>7</v>
       </c>
       <c r="C33" s="6">
-        <v>44851.65625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D33" s="10">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="E33" s="10">
         <f>D33-'well info'!$C$4</f>
-        <v>1.1299999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="F33" s="10">
         <f>'well info'!$E$4-$E33</f>
-        <v>18.7316</v>
+        <v>18.5716</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1369,18 +1360,18 @@
         <v>7</v>
       </c>
       <c r="C34" s="6">
-        <v>44886.625</v>
+        <v>44824.430555555555</v>
       </c>
       <c r="D34" s="10">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="E34" s="10">
         <f>D34-'well info'!$C$4</f>
-        <v>0.79999999999999993</v>
+        <v>1.25</v>
       </c>
       <c r="F34" s="10">
         <f>'well info'!$E$4-$E34</f>
-        <v>19.061599999999999</v>
+        <v>18.611599999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1391,18 +1382,18 @@
         <v>7</v>
       </c>
       <c r="C35" s="6">
-        <v>44894.625</v>
+        <v>44851.65625</v>
       </c>
       <c r="D35" s="10">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="E35" s="10">
         <f>D35-'well info'!$C$4</f>
-        <v>0.62</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F35" s="10">
         <f>'well info'!$E$4-$E35</f>
-        <v>19.241599999999998</v>
+        <v>18.7316</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1413,18 +1404,18 @@
         <v>7</v>
       </c>
       <c r="C36" s="6">
-        <v>44915.416666666664</v>
+        <v>44886.625</v>
       </c>
       <c r="D36" s="10">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="E36" s="10">
         <f>D36-'well info'!$C$4</f>
-        <v>0.7400000000000001</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="F36" s="10">
         <f>'well info'!$E$4-$E36</f>
-        <v>19.121600000000001</v>
+        <v>19.061599999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1435,18 +1426,18 @@
         <v>7</v>
       </c>
       <c r="C37" s="6">
-        <v>44930.597222222219</v>
+        <v>44894.625</v>
       </c>
       <c r="D37" s="10">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="E37" s="10">
         <f>D37-'well info'!$C$4</f>
-        <v>0.45000000000000007</v>
+        <v>0.62</v>
       </c>
       <c r="F37" s="10">
         <f>'well info'!$E$4-$E37</f>
-        <v>19.4116</v>
+        <v>19.241599999999998</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1457,18 +1448,18 @@
         <v>7</v>
       </c>
       <c r="C38" s="6">
-        <v>44956.597222222219</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D38" s="10">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="E38" s="10">
         <f>D38-'well info'!$C$4</f>
-        <v>0.56999999999999995</v>
+        <v>0.7400000000000001</v>
       </c>
       <c r="F38" s="10">
         <f>'well info'!$E$4-$E38</f>
-        <v>19.291599999999999</v>
+        <v>19.121600000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1479,18 +1470,18 @@
         <v>7</v>
       </c>
       <c r="C39" s="6">
-        <v>44979.451388888891</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D39" s="10">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="E39" s="10">
         <f>D39-'well info'!$C$4</f>
-        <v>0.64</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="F39" s="10">
         <f>'well info'!$E$4-$E39</f>
-        <v>19.221599999999999</v>
+        <v>19.4116</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1501,84 +1492,84 @@
         <v>7</v>
       </c>
       <c r="C40" s="6">
-        <v>45007.5625</v>
+        <v>44956.597222222219</v>
       </c>
       <c r="D40" s="10">
-        <v>1.1599999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="E40" s="10">
         <f>D40-'well info'!$C$4</f>
-        <v>0.52999999999999992</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F40" s="10">
         <f>'well info'!$E$4-$E40</f>
+        <v>19.291599999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="6">
+        <v>44979.451388888891</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1.27</v>
+      </c>
+      <c r="E41" s="10">
+        <f>D41-'well info'!$C$4</f>
+        <v>0.64</v>
+      </c>
+      <c r="F41" s="10">
+        <f>'well info'!$E$4-$E41</f>
+        <v>19.221599999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45007.5625</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E42" s="10">
+        <f>D42-'well info'!$C$4</f>
+        <v>0.52999999999999992</v>
+      </c>
+      <c r="F42" s="10">
+        <f>'well info'!$E$4-$E42</f>
         <v>19.331599999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D41" s="10">
-        <v>2.83</v>
-      </c>
-      <c r="E41" s="10">
-        <f>$D41-'well info'!$C$5</f>
-        <v>2.15</v>
-      </c>
-      <c r="F41" s="10">
-        <f>'well info'!$E$5-$E41</f>
-        <v>19.052600000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6">
-        <v>44791.406944444447</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2.71</v>
-      </c>
-      <c r="E42" s="10">
-        <f>$D42-'well info'!$C$5</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F42" s="10">
-        <f>'well info'!$E$5-$E42</f>
-        <v>19.172599999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C43" s="6">
-        <v>44813.447916666664</v>
+        <v>45139.399305555555</v>
       </c>
       <c r="D43" s="10">
-        <v>2.89</v>
+        <v>1.4</v>
       </c>
       <c r="E43" s="10">
-        <f>$D43-'well info'!$C$5</f>
-        <v>2.21</v>
+        <f>D43-'well info'!$C$4</f>
+        <v>0.76999999999999991</v>
       </c>
       <c r="F43" s="10">
-        <f>'well info'!$E$5-$E43</f>
-        <v>18.992599999999999</v>
+        <f>'well info'!$E$4-$E43</f>
+        <v>19.0916</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1589,18 +1580,18 @@
         <v>6</v>
       </c>
       <c r="C44" s="6">
-        <v>44818.607638888891</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D44" s="10">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="E44" s="10">
         <f>$D44-'well info'!$C$5</f>
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="F44" s="10">
         <f>'well info'!$E$5-$E44</f>
-        <v>19.1126</v>
+        <v>19.052600000000002</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1611,18 +1602,18 @@
         <v>6</v>
       </c>
       <c r="C45" s="6">
-        <v>44824.431944444441</v>
+        <v>44791.406944444447</v>
       </c>
       <c r="D45" s="10">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="E45" s="10">
         <f>$D45-'well info'!$C$5</f>
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F45" s="10">
         <f>'well info'!$E$5-$E45</f>
-        <v>19.2026</v>
+        <v>19.172599999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1633,18 +1624,18 @@
         <v>6</v>
       </c>
       <c r="C46" s="6">
-        <v>44886.618055555555</v>
+        <v>44813.447916666664</v>
       </c>
       <c r="D46" s="10">
-        <v>2.23</v>
+        <v>2.89</v>
       </c>
       <c r="E46" s="10">
         <f>$D46-'well info'!$C$5</f>
-        <v>1.5499999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="F46" s="10">
         <f>'well info'!$E$5-$E46</f>
-        <v>19.6526</v>
+        <v>18.992599999999999</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1655,18 +1646,18 @@
         <v>6</v>
       </c>
       <c r="C47" s="6">
-        <v>44894.625</v>
+        <v>44818.607638888891</v>
       </c>
       <c r="D47" s="10">
-        <v>1.81</v>
+        <v>2.77</v>
       </c>
       <c r="E47" s="10">
         <f>$D47-'well info'!$C$5</f>
-        <v>1.1299999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="F47" s="10">
         <f>'well info'!$E$5-$E47</f>
-        <v>20.072600000000001</v>
+        <v>19.1126</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1677,18 +1668,18 @@
         <v>6</v>
       </c>
       <c r="C48" s="6">
-        <v>44915.416666666664</v>
+        <v>44824.431944444441</v>
       </c>
       <c r="D48" s="10">
-        <v>2.11</v>
+        <v>2.68</v>
       </c>
       <c r="E48" s="10">
         <f>$D48-'well info'!$C$5</f>
-        <v>1.4299999999999997</v>
+        <v>2</v>
       </c>
       <c r="F48" s="10">
         <f>'well info'!$E$5-$E48</f>
-        <v>19.772600000000001</v>
+        <v>19.2026</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1699,18 +1690,18 @@
         <v>6</v>
       </c>
       <c r="C49" s="6">
-        <v>44930.597222222219</v>
+        <v>44886.618055555555</v>
       </c>
       <c r="D49" s="10">
-        <v>1.2</v>
+        <v>2.23</v>
       </c>
       <c r="E49" s="10">
         <f>$D49-'well info'!$C$5</f>
-        <v>0.51999999999999991</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="F49" s="10">
         <f>'well info'!$E$5-$E49</f>
-        <v>20.682600000000001</v>
+        <v>19.6526</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1721,18 +1712,18 @@
         <v>6</v>
       </c>
       <c r="C50" s="6">
-        <v>44956.597222222219</v>
+        <v>44894.625</v>
       </c>
       <c r="D50" s="10">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="E50" s="10">
         <f>$D50-'well info'!$C$5</f>
-        <v>0.88</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F50" s="10">
         <f>'well info'!$E$5-$E50</f>
-        <v>20.322600000000001</v>
+        <v>20.072600000000001</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1743,18 +1734,18 @@
         <v>6</v>
       </c>
       <c r="C51" s="6">
-        <v>44979.451388888891</v>
+        <v>44915.416666666664</v>
       </c>
       <c r="D51" s="10">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="E51" s="10">
         <f>$D51-'well info'!$C$5</f>
-        <v>1.1200000000000001</v>
+        <v>1.4299999999999997</v>
       </c>
       <c r="F51" s="10">
         <f>'well info'!$E$5-$E51</f>
-        <v>20.082599999999999</v>
+        <v>19.772600000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1765,106 +1756,106 @@
         <v>6</v>
       </c>
       <c r="C52" s="6">
-        <v>45007.5625</v>
+        <v>44930.597222222219</v>
       </c>
       <c r="D52" s="10">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="E52" s="10">
         <f>$D52-'well info'!$C$5</f>
-        <v>0.88</v>
+        <v>0.51999999999999991</v>
       </c>
       <c r="F52" s="10">
         <f>'well info'!$E$5-$E52</f>
+        <v>20.682600000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <v>44956.597222222219</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="E53" s="10">
+        <f>$D53-'well info'!$C$5</f>
+        <v>0.88</v>
+      </c>
+      <c r="F53" s="10">
+        <f>'well info'!$E$5-$E53</f>
         <v>20.322600000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="6">
-        <v>44775.552083333336</v>
-      </c>
-      <c r="D53" s="10">
-        <v>99</v>
-      </c>
-      <c r="E53" s="10">
-        <f>$D53-'well info'!$C$6</f>
-        <v>98.3</v>
-      </c>
-      <c r="F53" s="10">
-        <f>'well info'!$E$2-$E53</f>
-        <v>-76.87639999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C54" s="6">
-        <v>44791.408333333333</v>
+        <v>44979.451388888891</v>
       </c>
       <c r="D54" s="10">
-        <v>99</v>
+        <v>1.8</v>
       </c>
       <c r="E54" s="10">
-        <f>$D54-'well info'!$C$6</f>
-        <v>98.3</v>
+        <f>$D54-'well info'!$C$5</f>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F54" s="10">
-        <f>'well info'!$E$2-$E54</f>
-        <v>-76.87639999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+        <f>'well info'!$E$5-$E54</f>
+        <v>20.082599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C55" s="6">
-        <v>44813.458333333336</v>
+        <v>45007.5625</v>
       </c>
       <c r="D55" s="10">
-        <v>99</v>
+        <v>1.56</v>
       </c>
       <c r="E55" s="10">
-        <f>$D55-'well info'!$C$6</f>
-        <v>98.3</v>
+        <f>$D55-'well info'!$C$5</f>
+        <v>0.88</v>
       </c>
       <c r="F55" s="10">
-        <f>'well info'!$E$2-$E55</f>
-        <v>-76.87639999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+        <f>'well info'!$E$5-$E55</f>
+        <v>20.322600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C56" s="6">
-        <v>44818.645833333336</v>
+        <v>45139.427083333336</v>
       </c>
       <c r="D56" s="10">
-        <v>99</v>
+        <v>2.16</v>
       </c>
       <c r="E56" s="10">
-        <f>$D56-'well info'!$C$6</f>
-        <v>98.3</v>
+        <f>$D56-'well info'!$C$5</f>
+        <v>1.48</v>
       </c>
       <c r="F56" s="10">
-        <f>'well info'!$E$2-$E56</f>
-        <v>-76.87639999999999</v>
+        <f>'well info'!$E$5-$E56</f>
+        <v>19.7226</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1875,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="6">
-        <v>44824.434027777781</v>
+        <v>44775.552083333336</v>
       </c>
       <c r="D57" s="10">
         <v>99</v>
@@ -1893,88 +1884,88 @@
       <c r="A58" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="6">
-        <v>44894.625</v>
-      </c>
-      <c r="D58" s="13">
-        <v>2.65</v>
+        <v>44791.408333333333</v>
+      </c>
+      <c r="D58" s="10">
+        <v>99</v>
       </c>
       <c r="E58" s="10">
-        <f>$D58-'well info'!$C$8</f>
-        <v>2.37</v>
+        <f>$D58-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F58" s="10">
-        <f>'well info'!$E$6-$E58</f>
-        <v>19.784599999999998</v>
+        <f>'well info'!$E$2-$E58</f>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="6">
-        <v>44915.416666666664</v>
-      </c>
-      <c r="D59" s="13">
-        <v>2.7</v>
+        <v>44813.458333333336</v>
+      </c>
+      <c r="D59" s="10">
+        <v>99</v>
       </c>
       <c r="E59" s="10">
-        <f>$D59-'well info'!$C$8</f>
-        <v>2.42</v>
+        <f>$D59-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F59" s="10">
-        <f>'well info'!$E$6-$E59</f>
-        <v>19.7346</v>
+        <f>'well info'!$E$2-$E59</f>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="6">
-        <v>44930.597222222219</v>
-      </c>
-      <c r="D60" s="13">
-        <v>1.38</v>
+        <v>44818.645833333336</v>
+      </c>
+      <c r="D60" s="10">
+        <v>99</v>
       </c>
       <c r="E60" s="10">
-        <f>$D60-'well info'!$C$8</f>
-        <v>1.0999999999999999</v>
+        <f>$D60-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F60" s="10">
-        <f>'well info'!$E$6-$E60</f>
-        <v>21.054599999999997</v>
+        <f>'well info'!$E$2-$E60</f>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="6">
-        <v>44956.597222222219</v>
-      </c>
-      <c r="D61" s="13">
-        <v>1.56</v>
+        <v>44824.434027777781</v>
+      </c>
+      <c r="D61" s="10">
+        <v>99</v>
       </c>
       <c r="E61" s="10">
-        <f>$D61-'well info'!$C$8</f>
-        <v>1.28</v>
+        <f>$D61-'well info'!$C$6</f>
+        <v>98.3</v>
       </c>
       <c r="F61" s="10">
-        <f>'well info'!$E$6-$E61</f>
-        <v>20.874599999999997</v>
+        <f>'well info'!$E$2-$E61</f>
+        <v>-76.87639999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.3">
@@ -1985,39 +1976,127 @@
         <v>8</v>
       </c>
       <c r="C62" s="6">
-        <v>44979.451388888891</v>
+        <v>44894.625</v>
       </c>
       <c r="D62" s="13">
-        <v>2.06</v>
+        <v>2.65</v>
       </c>
       <c r="E62" s="10">
         <f>$D62-'well info'!$C$8</f>
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="F62" s="10">
         <f>'well info'!$E$6-$E62</f>
-        <v>20.374599999999997</v>
+        <v>19.784599999999998</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="6">
-        <v>45007.5625</v>
-      </c>
-      <c r="D63" s="16">
-        <v>1.65</v>
+        <v>44915.416666666664</v>
+      </c>
+      <c r="D63" s="13">
+        <v>2.7</v>
       </c>
       <c r="E63" s="10">
         <f>$D63-'well info'!$C$8</f>
-        <v>1.3699999999999999</v>
+        <v>2.42</v>
       </c>
       <c r="F63" s="10">
         <f>'well info'!$E$6-$E63</f>
+        <v>19.7346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="6">
+        <v>44930.597222222219</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1.38</v>
+      </c>
+      <c r="E64" s="10">
+        <f>$D64-'well info'!$C$8</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="F64" s="10">
+        <f>'well info'!$E$6-$E64</f>
+        <v>21.054599999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="6">
+        <v>44956.597222222219</v>
+      </c>
+      <c r="D65" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="E65" s="10">
+        <f>$D65-'well info'!$C$8</f>
+        <v>1.28</v>
+      </c>
+      <c r="F65" s="10">
+        <f>'well info'!$E$6-$E65</f>
+        <v>20.874599999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="6">
+        <v>44979.451388888891</v>
+      </c>
+      <c r="D66" s="13">
+        <v>2.06</v>
+      </c>
+      <c r="E66" s="10">
+        <f>$D66-'well info'!$C$8</f>
+        <v>1.78</v>
+      </c>
+      <c r="F66" s="10">
+        <f>'well info'!$E$6-$E66</f>
+        <v>20.374599999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="6">
+        <v>45007.5625</v>
+      </c>
+      <c r="D67" s="13">
+        <v>1.65</v>
+      </c>
+      <c r="E67" s="10">
+        <f>$D67-'well info'!$C$8</f>
+        <v>1.3699999999999999</v>
+      </c>
+      <c r="F67" s="10">
+        <f>'well info'!$E$6-$E67</f>
         <v>20.784599999999998</v>
       </c>
     </row>
